--- a/data/hotels_by_city/Houston/Houston_shard_315.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_315.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55667-d98555-Reviews-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Holiday-Inn-Express-Hotel-Suites-Conroe-I-45-North.h1194362.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1273 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r585337774-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>98555</t>
+  </si>
+  <si>
+    <t>585337774</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>Passing through and figured we make a stop to rest. This Holiday Inn was wonderful! Jennifer greeted us when we arrived and she was awesome even though she was by herself she seemed to make the best out of the situation! All of our accommodations were acknowledged and we got to enjoy the pool where the water was at a perfect temperature! Breakfast was a little bland. Wish they had a waffle maker instead of that 1 minute pancake maker. Biscuits and gravy we’re delish!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r583087594-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>583087594</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>No basic amenities in room!</t>
+  </si>
+  <si>
+    <t>Do not let outdated reviews fool you! This hotel is being POORLY managed!!! Did I have a clean room with cold AC ...yes but that ends the positives. I jumped in the shower only to realize our bathroom had NO TOWELS!!! Not one washcloth, hand towel or bath towel except for the floor mat. My husband called front desk while I waited only to be told we could only have two! We had 4 people to take showers. At least she brought the two right away but we never received the additional 2 we were promised. Free breakfast pretty typical of holiday inn. No complaints there but went back to room to realize no soap in any form was in the hotel. There was also no hot water! There were 3 housekeeping carts on our floor and none had hand soap! Called front desk who said they would put in a note to management but no offer of bringing us soap! Said we could change room if no hot water but we were checking out. Upon Checkout my husband brought up all of our concerns which was only met with excuses, that it was maintenance that didn’t order soap so they were giving extra shampoo bottles in the shower. I must assume based on this comment that no one in this hotel had hand soap to wash after using the restroom! Gross! Plus they hoarded towels which had us not...Do not let outdated reviews fool you! This hotel is being POORLY managed!!! Did I have a clean room with cold AC ...yes but that ends the positives. I jumped in the shower only to realize our bathroom had NO TOWELS!!! Not one washcloth, hand towel or bath towel except for the floor mat. My husband called front desk while I waited only to be told we could only have two! We had 4 people to take showers. At least she brought the two right away but we never received the additional 2 we were promised. Free breakfast pretty typical of holiday inn. No complaints there but went back to room to realize no soap in any form was in the hotel. There was also no hot water! There were 3 housekeeping carts on our floor and none had hand soap! Called front desk who said they would put in a note to management but no offer of bringing us soap! Said we could change room if no hot water but we were checking out. Upon Checkout my husband brought up all of our concerns which was only met with excuses, that it was maintenance that didn’t order soap so they were giving extra shampoo bottles in the shower. I must assume based on this comment that no one in this hotel had hand soap to wash after using the restroom! Gross! Plus they hoarded towels which had us not being able to shower before leaving hotel. We paid over $120 for a room without basic amenities and a staff that could not contact management. So Donna Dean if you ever wish to answer your phone we would love to speak to you about this.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Do not let outdated reviews fool you! This hotel is being POORLY managed!!! Did I have a clean room with cold AC ...yes but that ends the positives. I jumped in the shower only to realize our bathroom had NO TOWELS!!! Not one washcloth, hand towel or bath towel except for the floor mat. My husband called front desk while I waited only to be told we could only have two! We had 4 people to take showers. At least she brought the two right away but we never received the additional 2 we were promised. Free breakfast pretty typical of holiday inn. No complaints there but went back to room to realize no soap in any form was in the hotel. There was also no hot water! There were 3 housekeeping carts on our floor and none had hand soap! Called front desk who said they would put in a note to management but no offer of bringing us soap! Said we could change room if no hot water but we were checking out. Upon Checkout my husband brought up all of our concerns which was only met with excuses, that it was maintenance that didn’t order soap so they were giving extra shampoo bottles in the shower. I must assume based on this comment that no one in this hotel had hand soap to wash after using the restroom! Gross! Plus they hoarded towels which had us not...Do not let outdated reviews fool you! This hotel is being POORLY managed!!! Did I have a clean room with cold AC ...yes but that ends the positives. I jumped in the shower only to realize our bathroom had NO TOWELS!!! Not one washcloth, hand towel or bath towel except for the floor mat. My husband called front desk while I waited only to be told we could only have two! We had 4 people to take showers. At least she brought the two right away but we never received the additional 2 we were promised. Free breakfast pretty typical of holiday inn. No complaints there but went back to room to realize no soap in any form was in the hotel. There was also no hot water! There were 3 housekeeping carts on our floor and none had hand soap! Called front desk who said they would put in a note to management but no offer of bringing us soap! Said we could change room if no hot water but we were checking out. Upon Checkout my husband brought up all of our concerns which was only met with excuses, that it was maintenance that didn’t order soap so they were giving extra shampoo bottles in the shower. I must assume based on this comment that no one in this hotel had hand soap to wash after using the restroom! Gross! Plus they hoarded towels which had us not being able to shower before leaving hotel. We paid over $120 for a room without basic amenities and a staff that could not contact management. So Donna Dean if you ever wish to answer your phone we would love to speak to you about this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r577540182-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>577540182</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>I should have listened to the other reviews :(</t>
+  </si>
+  <si>
+    <t>I made reservations for 3 Executive King rooms and a Standard King room. I knew we were not going to be able to check in until midnight that night, so on my way to the area, I stopped in around 11:00 am that morning and explained that all 4 rooms would not be checking in until very late and please DO NOT GIVE OUR ROOMS AWAY. I explained that I had read reviews on the hotel and that when people did not check in on time, their rooms were given away. I was assured that that would not happen and the Front Desk put notes in while I was standing there. I was again assured that would not happen and we would have our 3 Executive King rooms waiting for us and 1 Standard King. Well.... after a long hard, exhausting day, we arrived at the hotel and guess what???? One of our rooms was given away. So now instead of 3 King Executive rooms, we received 2 King Executive and 2 standard King room. And they were all on 3 different floors. To say that I was UPSET would be putting it mildly. I took the keys and grumpily handed room assignments out. I am not even going to review anymore of the hotel amenities because I am still upset. I would just say that if you can find another hotel to stay at that delivers what they promise...I made reservations for 3 Executive King rooms and a Standard King room. I knew we were not going to be able to check in until midnight that night, so on my way to the area, I stopped in around 11:00 am that morning and explained that all 4 rooms would not be checking in until very late and please DO NOT GIVE OUR ROOMS AWAY. I explained that I had read reviews on the hotel and that when people did not check in on time, their rooms were given away. I was assured that that would not happen and the Front Desk put notes in while I was standing there. I was again assured that would not happen and we would have our 3 Executive King rooms waiting for us and 1 Standard King. Well.... after a long hard, exhausting day, we arrived at the hotel and guess what???? One of our rooms was given away. So now instead of 3 King Executive rooms, we received 2 King Executive and 2 standard King room. And they were all on 3 different floors. To say that I was UPSET would be putting it mildly. I took the keys and grumpily handed room assignments out. I am not even going to review anymore of the hotel amenities because I am still upset. I would just say that if you can find another hotel to stay at that delivers what they promise and what you pay for, stay there!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>I made reservations for 3 Executive King rooms and a Standard King room. I knew we were not going to be able to check in until midnight that night, so on my way to the area, I stopped in around 11:00 am that morning and explained that all 4 rooms would not be checking in until very late and please DO NOT GIVE OUR ROOMS AWAY. I explained that I had read reviews on the hotel and that when people did not check in on time, their rooms were given away. I was assured that that would not happen and the Front Desk put notes in while I was standing there. I was again assured that would not happen and we would have our 3 Executive King rooms waiting for us and 1 Standard King. Well.... after a long hard, exhausting day, we arrived at the hotel and guess what???? One of our rooms was given away. So now instead of 3 King Executive rooms, we received 2 King Executive and 2 standard King room. And they were all on 3 different floors. To say that I was UPSET would be putting it mildly. I took the keys and grumpily handed room assignments out. I am not even going to review anymore of the hotel amenities because I am still upset. I would just say that if you can find another hotel to stay at that delivers what they promise...I made reservations for 3 Executive King rooms and a Standard King room. I knew we were not going to be able to check in until midnight that night, so on my way to the area, I stopped in around 11:00 am that morning and explained that all 4 rooms would not be checking in until very late and please DO NOT GIVE OUR ROOMS AWAY. I explained that I had read reviews on the hotel and that when people did not check in on time, their rooms were given away. I was assured that that would not happen and the Front Desk put notes in while I was standing there. I was again assured that would not happen and we would have our 3 Executive King rooms waiting for us and 1 Standard King. Well.... after a long hard, exhausting day, we arrived at the hotel and guess what???? One of our rooms was given away. So now instead of 3 King Executive rooms, we received 2 King Executive and 2 standard King room. And they were all on 3 different floors. To say that I was UPSET would be putting it mildly. I took the keys and grumpily handed room assignments out. I am not even going to review anymore of the hotel amenities because I am still upset. I would just say that if you can find another hotel to stay at that delivers what they promise and what you pay for, stay there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r542344449-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>542344449</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Avoid This Place - Breakfast Is Only Good Thing Here</t>
+  </si>
+  <si>
+    <t>Let me start with the positive: the breakfast is excellent. There were eggs, sausage, yogurts, fruits, and even mini-cinnabons. Everything was well maintained and fresh.
+Now the worst part. The people in the next room were so noisy the second night that I could not sleep. I called the front desk at 11:30 p.m. and asked for help. At midnight they were still noisy, so I walked to the front desk in my PJs. The man at the desk said that he had walked down and didn't hear any noise from their room. He offered to move us to a different room at midnight! I suggested that he deal with or move the noisy people ... woman talking loud, kids screaming, baby crying. The man said that he wouldn't move them because they've been living there for two months. He didn't sound like he was going to help me so I went and knocked on the door. He came down the hall and got mad at me for bothering them; and the woman claimed that they were not the noisy ones. I closed the door to my room, then opened it again to see if he was dealing with it. He again offered to move me to a different room; I suggested that he just give us a refund tomorrow and he answered, "not if you're staying here."
+This was on top of the fact that the motel was going...Let me start with the positive: the breakfast is excellent. There were eggs, sausage, yogurts, fruits, and even mini-cinnabons. Everything was well maintained and fresh.Now the worst part. The people in the next room were so noisy the second night that I could not sleep. I called the front desk at 11:30 p.m. and asked for help. At midnight they were still noisy, so I walked to the front desk in my PJs. The man at the desk said that he had walked down and didn't hear any noise from their room. He offered to move us to a different room at midnight! I suggested that he deal with or move the noisy people ... woman talking loud, kids screaming, baby crying. The man said that he wouldn't move them because they've been living there for two months. He didn't sound like he was going to help me so I went and knocked on the door. He came down the hall and got mad at me for bothering them; and the woman claimed that they were not the noisy ones. I closed the door to my room, then opened it again to see if he was dealing with it. He again offered to move me to a different room; I suggested that he just give us a refund tomorrow and he answered, "not if you're staying here."This was on top of the fact that the motel was going through renovations and most of the rooms in our hall were torn apart; the walls and floors were a mess.And after all this stress, I couldn't even soak because the hotel doesn't have a jacuzzi. I asked some kids about the pool and they said that it was freezing. You would think that for $104 per night there would be better amenities.Anyway, my recommendation is to AVOID this HOTEL!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Let me start with the positive: the breakfast is excellent. There were eggs, sausage, yogurts, fruits, and even mini-cinnabons. Everything was well maintained and fresh.
+Now the worst part. The people in the next room were so noisy the second night that I could not sleep. I called the front desk at 11:30 p.m. and asked for help. At midnight they were still noisy, so I walked to the front desk in my PJs. The man at the desk said that he had walked down and didn't hear any noise from their room. He offered to move us to a different room at midnight! I suggested that he deal with or move the noisy people ... woman talking loud, kids screaming, baby crying. The man said that he wouldn't move them because they've been living there for two months. He didn't sound like he was going to help me so I went and knocked on the door. He came down the hall and got mad at me for bothering them; and the woman claimed that they were not the noisy ones. I closed the door to my room, then opened it again to see if he was dealing with it. He again offered to move me to a different room; I suggested that he just give us a refund tomorrow and he answered, "not if you're staying here."
+This was on top of the fact that the motel was going...Let me start with the positive: the breakfast is excellent. There were eggs, sausage, yogurts, fruits, and even mini-cinnabons. Everything was well maintained and fresh.Now the worst part. The people in the next room were so noisy the second night that I could not sleep. I called the front desk at 11:30 p.m. and asked for help. At midnight they were still noisy, so I walked to the front desk in my PJs. The man at the desk said that he had walked down and didn't hear any noise from their room. He offered to move us to a different room at midnight! I suggested that he deal with or move the noisy people ... woman talking loud, kids screaming, baby crying. The man said that he wouldn't move them because they've been living there for two months. He didn't sound like he was going to help me so I went and knocked on the door. He came down the hall and got mad at me for bothering them; and the woman claimed that they were not the noisy ones. I closed the door to my room, then opened it again to see if he was dealing with it. He again offered to move me to a different room; I suggested that he just give us a refund tomorrow and he answered, "not if you're staying here."This was on top of the fact that the motel was going through renovations and most of the rooms in our hall were torn apart; the walls and floors were a mess.And after all this stress, I couldn't even soak because the hotel doesn't have a jacuzzi. I asked some kids about the pool and they said that it was freezing. You would think that for $104 per night there would be better amenities.Anyway, my recommendation is to AVOID this HOTEL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r540681791-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>540681791</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Stay after visit to Santa's Wonderland in College Station</t>
+  </si>
+  <si>
+    <t>Second year in a row we booked this hotel to stay in while attending Santa's Wonderland. Last year when we went to check in the hotel around 11 PM we were advised that there was some type of problem at the hotel and our rooms were not available, although smoking room were available. Doesn't take a rocket scientist to figure out they gave our rooms to someone else. They did book us at another hotel in the Woodlands and we did not have to pay for that room. But who wants to do that when you have tired children (and adults)!
+Well shame on us for booking this same hotel again this year. We contacted the hotel a couple days before our stay to make sure they were not going to sell our rooms and were told no problem since we were again guaranteed for late arrival. On the date of check in we called to see if we could check in over the phone so they wouldn't give our rooms away and were told we couldn't, but there were plenty rooms available and they would hold our rooms. Well upon check in at 1:00 AM, when we got to our rooms we discovered that one room that we booked was available but the 2nd room that was supposed to have two king beds and a pull out couch only had one king bed and a pull out couch. So...Second year in a row we booked this hotel to stay in while attending Santa's Wonderland. Last year when we went to check in the hotel around 11 PM we were advised that there was some type of problem at the hotel and our rooms were not available, although smoking room were available. Doesn't take a rocket scientist to figure out they gave our rooms to someone else. They did book us at another hotel in the Woodlands and we did not have to pay for that room. But who wants to do that when you have tired children (and adults)!Well shame on us for booking this same hotel again this year. We contacted the hotel a couple days before our stay to make sure they were not going to sell our rooms and were told no problem since we were again guaranteed for late arrival. On the date of check in we called to see if we could check in over the phone so they wouldn't give our rooms away and were told we couldn't, but there were plenty rooms available and they would hold our rooms. Well upon check in at 1:00 AM, when we got to our rooms we discovered that one room that we booked was available but the 2nd room that was supposed to have two king beds and a pull out couch only had one king bed and a pull out couch. So needless to say someone had to sleep on the floor. The hotel did only charge us $50 for this room, but should not have charged us at all.So if you are going to be late arriving at the hotel - STAY SOMEWHERE ELSE! Bad business practices. Can promise you that we will not give them another opportunity to mess us our rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Second year in a row we booked this hotel to stay in while attending Santa's Wonderland. Last year when we went to check in the hotel around 11 PM we were advised that there was some type of problem at the hotel and our rooms were not available, although smoking room were available. Doesn't take a rocket scientist to figure out they gave our rooms to someone else. They did book us at another hotel in the Woodlands and we did not have to pay for that room. But who wants to do that when you have tired children (and adults)!
+Well shame on us for booking this same hotel again this year. We contacted the hotel a couple days before our stay to make sure they were not going to sell our rooms and were told no problem since we were again guaranteed for late arrival. On the date of check in we called to see if we could check in over the phone so they wouldn't give our rooms away and were told we couldn't, but there were plenty rooms available and they would hold our rooms. Well upon check in at 1:00 AM, when we got to our rooms we discovered that one room that we booked was available but the 2nd room that was supposed to have two king beds and a pull out couch only had one king bed and a pull out couch. So...Second year in a row we booked this hotel to stay in while attending Santa's Wonderland. Last year when we went to check in the hotel around 11 PM we were advised that there was some type of problem at the hotel and our rooms were not available, although smoking room were available. Doesn't take a rocket scientist to figure out they gave our rooms to someone else. They did book us at another hotel in the Woodlands and we did not have to pay for that room. But who wants to do that when you have tired children (and adults)!Well shame on us for booking this same hotel again this year. We contacted the hotel a couple days before our stay to make sure they were not going to sell our rooms and were told no problem since we were again guaranteed for late arrival. On the date of check in we called to see if we could check in over the phone so they wouldn't give our rooms away and were told we couldn't, but there were plenty rooms available and they would hold our rooms. Well upon check in at 1:00 AM, when we got to our rooms we discovered that one room that we booked was available but the 2nd room that was supposed to have two king beds and a pull out couch only had one king bed and a pull out couch. So needless to say someone had to sleep on the floor. The hotel did only charge us $50 for this room, but should not have charged us at all.So if you are going to be late arriving at the hotel - STAY SOMEWHERE ELSE! Bad business practices. Can promise you that we will not give them another opportunity to mess us our rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r531832134-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>531832134</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Going to be nice</t>
+  </si>
+  <si>
+    <t>They are currently in a big renovation project and the hotel will look great when finished. I would wait until it’s complete as it’s a mess and dust everywhere. My room was updated and nice with comfortable beds. I’ll be back when complete and review again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>They are currently in a big renovation project and the hotel will look great when finished. I would wait until it’s complete as it’s a mess and dust everywhere. My room was updated and nice with comfortable beds. I’ll be back when complete and review again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r505298557-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>505298557</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fabulous stop over place! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stopped here on a road trip from Houston to Dallas!What a gem of a location.Warm welcoming staff, helpful and knowledgable.! Great pool area and wonderful pool.Room was very spacious, cool, modern and had every thing we could need including a fridge and Tea and coffee! The shower was amazing hot, clean and lovely.Free breakfast was also good compared to other hotels we have stayed in.Well done to all the staff at this location, I would highly recommend and certainly stay here again if ever In the area. Try chilli's restaurant across the street a fab meal ! </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r498642630-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>498642630</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding Despite Remodeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean new room. Good, hot breakfast. Awesome water pressure and hot water for shower and shaving. Complimentary Otis Spunkmeyer cookies are really good. Late check out more gracious than expected. This motel will be our first choice on future visits to Conroe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r496728595-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>496728595</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Nicely Renovated Hotel</t>
+  </si>
+  <si>
+    <t>I checked into this hotel on  June 27th . I had to drive around your parking lot for 20 minutes trying to find a place to park. I needed a handicap spot but they have construction equipment in the way so I had to park in the street. My room was nice and clean but there was no toilet paper holder. Had to search for the hair dryer because it was hidden in a black bag. The only saving grace was the very friendly and apologetic front desk clerk Buddy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>I checked into this hotel on  June 27th . I had to drive around your parking lot for 20 minutes trying to find a place to park. I needed a handicap spot but they have construction equipment in the way so I had to park in the street. My room was nice and clean but there was no toilet paper holder. Had to search for the hair dryer because it was hidden in a black bag. The only saving grace was the very friendly and apologetic front desk clerk Buddy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r453201817-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>453201817</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Quick visit</t>
+  </si>
+  <si>
+    <t>Our stay was good although getting there was not easy.  Tried to reach the front desk for over 2 hours straight our arrival date no one ever answered.  Even tried to contact the 800 number and no one was able to reach them.  Needless today I was a little uneasy about our stay luckily it all went well.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r453087901-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>453087901</t>
+  </si>
+  <si>
+    <t>Budget Chain Hotel on a Major Highway</t>
+  </si>
+  <si>
+    <t>The rooms are clean, and the breakfast is not the best.  You get what you expect with this place.  You're not coming here for a nice night away, this is a stopping point or a business hotel.  It's fairly easy to find off the highway as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are clean, and the breakfast is not the best.  You get what you expect with this place.  You're not coming here for a nice night away, this is a stopping point or a business hotel.  It's fairly easy to find off the highway as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r447295945-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>447295945</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Conroe, TX</t>
+  </si>
+  <si>
+    <t>Great room, great breakfast, nice visit. The beds were soft and comfortable. Plenty of receptacles to plug in devices.Easy access to restaurants and highway. Easy check in and out. Booked online through Tripadvisor, easy, peasy.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r411623784-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>411623784</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Houston, We Dont Have a Problem</t>
+  </si>
+  <si>
+    <t>First trip to Houston and not sure what to expect except BIG. Everything in Texas is BIG starting with the airport.
+Had good pre-sent directions to get to the hotel in Conroe. At least to get within the vicinity. I might just be a simple Canadian but I had a hard time getting to the actual location. I think they just set things up a tad different than I am used to in Vancouver. Once I got to the hotel the staff were courteous and efficient. Could have been a bit "friendlier" but nice enough I guess. Especially the offer of cookies and milk to take up to my room. Nice touch. The room was as expected, clean, well equipped and very "homey" I thought. Very comfortable and relaxing. The King bed was actually extraordinarily comfortable. I wanted to stuff it in my suitcase and bring ot home. Same with the pillows. Actually labeled "soft" and "firm". Very nice touch. The A/C was cranked when I got there and had to really dial it back. South Texas is very, very humid and so I guess they like to crank the A/C to keep it cool AND dry Worked out better my second night. Great shower, lots of towels and goodies. Had a fridge n microwave etc. Good coffee maker and supplies. Only real issue was the TV remote. Batteries were very weak and it did give a message on the...First trip to Houston and not sure what to expect except BIG. Everything in Texas is BIG starting with the airport.Had good pre-sent directions to get to the hotel in Conroe. At least to get within the vicinity. I might just be a simple Canadian but I had a hard time getting to the actual location. I think they just set things up a tad different than I am used to in Vancouver. Once I got to the hotel the staff were courteous and efficient. Could have been a bit "friendlier" but nice enough I guess. Especially the offer of cookies and milk to take up to my room. Nice touch. The room was as expected, clean, well equipped and very "homey" I thought. Very comfortable and relaxing. The King bed was actually extraordinarily comfortable. I wanted to stuff it in my suitcase and bring ot home. Same with the pillows. Actually labeled "soft" and "firm". Very nice touch. The A/C was cranked when I got there and had to really dial it back. South Texas is very, very humid and so I guess they like to crank the A/C to keep it cool AND dry Worked out better my second night. Great shower, lots of towels and goodies. Had a fridge n microwave etc. Good coffee maker and supplies. Only real issue was the TV remote. Batteries were very weak and it did give a message on the TV saying so and to call the desk for a new remote. I just opened it up and "rotated" the batteries, all was well. Morning buffet breakfast was wonderful, eggs, sausage, toast, bagels etc. Fruit cereals and yogurt. Great spread. Even had lunch bags if you needed one. Nice atmosphere as well, just like being at home with 20 other people. I did not try the gym or the pool. Pool was out my window and I did see others having a good time. Reasonable sized pool with waterfall, patio furniture, cabanas. It rained torrentially my second and third nights so no swimming for me. I wish I would have taken the Mrs with me, it would have been a nice enjoyable couples trip. Also lts of shopping and dining close by. Chili's and Texas Steakhouse across the street. But that's another review!!!  Overall a very good hotel and a nice stay. I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>First trip to Houston and not sure what to expect except BIG. Everything in Texas is BIG starting with the airport.
+Had good pre-sent directions to get to the hotel in Conroe. At least to get within the vicinity. I might just be a simple Canadian but I had a hard time getting to the actual location. I think they just set things up a tad different than I am used to in Vancouver. Once I got to the hotel the staff were courteous and efficient. Could have been a bit "friendlier" but nice enough I guess. Especially the offer of cookies and milk to take up to my room. Nice touch. The room was as expected, clean, well equipped and very "homey" I thought. Very comfortable and relaxing. The King bed was actually extraordinarily comfortable. I wanted to stuff it in my suitcase and bring ot home. Same with the pillows. Actually labeled "soft" and "firm". Very nice touch. The A/C was cranked when I got there and had to really dial it back. South Texas is very, very humid and so I guess they like to crank the A/C to keep it cool AND dry Worked out better my second night. Great shower, lots of towels and goodies. Had a fridge n microwave etc. Good coffee maker and supplies. Only real issue was the TV remote. Batteries were very weak and it did give a message on the...First trip to Houston and not sure what to expect except BIG. Everything in Texas is BIG starting with the airport.Had good pre-sent directions to get to the hotel in Conroe. At least to get within the vicinity. I might just be a simple Canadian but I had a hard time getting to the actual location. I think they just set things up a tad different than I am used to in Vancouver. Once I got to the hotel the staff were courteous and efficient. Could have been a bit "friendlier" but nice enough I guess. Especially the offer of cookies and milk to take up to my room. Nice touch. The room was as expected, clean, well equipped and very "homey" I thought. Very comfortable and relaxing. The King bed was actually extraordinarily comfortable. I wanted to stuff it in my suitcase and bring ot home. Same with the pillows. Actually labeled "soft" and "firm". Very nice touch. The A/C was cranked when I got there and had to really dial it back. South Texas is very, very humid and so I guess they like to crank the A/C to keep it cool AND dry Worked out better my second night. Great shower, lots of towels and goodies. Had a fridge n microwave etc. Good coffee maker and supplies. Only real issue was the TV remote. Batteries were very weak and it did give a message on the TV saying so and to call the desk for a new remote. I just opened it up and "rotated" the batteries, all was well. Morning buffet breakfast was wonderful, eggs, sausage, toast, bagels etc. Fruit cereals and yogurt. Great spread. Even had lunch bags if you needed one. Nice atmosphere as well, just like being at home with 20 other people. I did not try the gym or the pool. Pool was out my window and I did see others having a good time. Reasonable sized pool with waterfall, patio furniture, cabanas. It rained torrentially my second and third nights so no swimming for me. I wish I would have taken the Mrs with me, it would have been a nice enjoyable couples trip. Also lts of shopping and dining close by. Chili's and Texas Steakhouse across the street. But that's another review!!!  Overall a very good hotel and a nice stay. I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r378600511-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>378600511</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>We spent a long weekend in Conroe for a wedding which unfortunately coincided with the most recent flooding in the Houston area. As a result, the hotel (and all local hotels) were booked even though many had storm related outages (power, lightening damage, etc.). Our room was not quite perfect - it was a non-smoking room which apparently housed a heavy smoker. Not realizing the extent of the problems that local residents were experiencing, I wanted a room change . . . this is where the excellent customer service comes in . . . the ladies at the front desk were extremely kind and patient with me as I wrapped my head around the fact that not only was this room the only room I was going to get within a 50 mile radius, it had electricity AND air conditioning which was more than many people had - including themselves since they were going home to houses with no electricity.  We had no idea that things were so bad but it turned out that all of the area hotels were full of local residents who were evacuated from their homes due to flooding or tornado damage. 
+The manager came up and sprayed our room several times that afternoon and next day which made the air bearable and other than the bad odor of the room, everything else was great with our stay. The room was clean and comfortable and the...We spent a long weekend in Conroe for a wedding which unfortunately coincided with the most recent flooding in the Houston area. As a result, the hotel (and all local hotels) were booked even though many had storm related outages (power, lightening damage, etc.). Our room was not quite perfect - it was a non-smoking room which apparently housed a heavy smoker. Not realizing the extent of the problems that local residents were experiencing, I wanted a room change . . . this is where the excellent customer service comes in . . . the ladies at the front desk were extremely kind and patient with me as I wrapped my head around the fact that not only was this room the only room I was going to get within a 50 mile radius, it had electricity AND air conditioning which was more than many people had - including themselves since they were going home to houses with no electricity.  We had no idea that things were so bad but it turned out that all of the area hotels were full of local residents who were evacuated from their homes due to flooding or tornado damage. The manager came up and sprayed our room several times that afternoon and next day which made the air bearable and other than the bad odor of the room, everything else was great with our stay. The room was clean and comfortable and the AC worked very well (a big plus in the Texas heat!).The hotel met our expectations for a Holiday Inn Express but the way the front desk crew handled a sticky &amp; stinky situation was outstanding. I hope it stops raining for a while in the Houston area - these people need a break!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>We spent a long weekend in Conroe for a wedding which unfortunately coincided with the most recent flooding in the Houston area. As a result, the hotel (and all local hotels) were booked even though many had storm related outages (power, lightening damage, etc.). Our room was not quite perfect - it was a non-smoking room which apparently housed a heavy smoker. Not realizing the extent of the problems that local residents were experiencing, I wanted a room change . . . this is where the excellent customer service comes in . . . the ladies at the front desk were extremely kind and patient with me as I wrapped my head around the fact that not only was this room the only room I was going to get within a 50 mile radius, it had electricity AND air conditioning which was more than many people had - including themselves since they were going home to houses with no electricity.  We had no idea that things were so bad but it turned out that all of the area hotels were full of local residents who were evacuated from their homes due to flooding or tornado damage. 
+The manager came up and sprayed our room several times that afternoon and next day which made the air bearable and other than the bad odor of the room, everything else was great with our stay. The room was clean and comfortable and the...We spent a long weekend in Conroe for a wedding which unfortunately coincided with the most recent flooding in the Houston area. As a result, the hotel (and all local hotels) were booked even though many had storm related outages (power, lightening damage, etc.). Our room was not quite perfect - it was a non-smoking room which apparently housed a heavy smoker. Not realizing the extent of the problems that local residents were experiencing, I wanted a room change . . . this is where the excellent customer service comes in . . . the ladies at the front desk were extremely kind and patient with me as I wrapped my head around the fact that not only was this room the only room I was going to get within a 50 mile radius, it had electricity AND air conditioning which was more than many people had - including themselves since they were going home to houses with no electricity.  We had no idea that things were so bad but it turned out that all of the area hotels were full of local residents who were evacuated from their homes due to flooding or tornado damage. The manager came up and sprayed our room several times that afternoon and next day which made the air bearable and other than the bad odor of the room, everything else was great with our stay. The room was clean and comfortable and the AC worked very well (a big plus in the Texas heat!).The hotel met our expectations for a Holiday Inn Express but the way the front desk crew handled a sticky &amp; stinky situation was outstanding. I hope it stops raining for a while in the Houston area - these people need a break!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r367709587-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>367709587</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a doctor's visit, we checked in. Staff polite and hotel was well kept. We got a smoking room and all was good. Bathroom standard and clean. We did have a plumbing emergency but maintainence was on the ball and fixed it. Bed was soft and fridge cold. It is well located with numerous businesses around for food n shopping. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r358252848-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>358252848</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Good for the night!</t>
+  </si>
+  <si>
+    <t>If you need a place right of the interstate with local eateries and a good price, then this place is for you.  It's not a snazzy family destination by any means but the staff is really nice.  It is a little dated in the rooms but its location is worth it if you need a quick overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2016</t>
+  </si>
+  <si>
+    <t>If you need a place right of the interstate with local eateries and a good price, then this place is for you.  It's not a snazzy family destination by any means but the staff is really nice.  It is a little dated in the rooms but its location is worth it if you need a quick overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r351959686-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>351959686</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Ok place to stay.</t>
+  </si>
+  <si>
+    <t>Good location near a lot of restraunts and other stores.  Place is showing it's age.  Elevator didn't work for 4 of the 5 days I was there.  Clean rooms and nice people but needs an upgrade.  Right off of the freeway so getting around is easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Good location near a lot of restraunts and other stores.  Place is showing it's age.  Elevator didn't work for 4 of the 5 days I was there.  Clean rooms and nice people but needs an upgrade.  Right off of the freeway so getting around is easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r337683158-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>337683158</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Quality staffing</t>
+  </si>
+  <si>
+    <t>We stayed for 6 days and the staff was always very friendly and helpful.  The only issues were the pool was closed and the food at the complimentary breakfast was mediocre at best.  Overall it was a wonderful vacation.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r318799854-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>318799854</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Consistent excellence!</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel after midnight and the gentleman at the front desk got me checked in quickly and even offered helpful information for my morning commute into Houston (I thought NYC traffic was bad - oy!). The breakfast selection was broad and tasty; I was not disappointed. Details like putting pillows of different firmness on the bed made a good stay even better.H.I. Express excellence is consistent from city to city. Clean, comfortable rooms, a good breakfast and front desk staff that are always welcoming make H.I. Express an easy choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel after midnight and the gentleman at the front desk got me checked in quickly and even offered helpful information for my morning commute into Houston (I thought NYC traffic was bad - oy!). The breakfast selection was broad and tasty; I was not disappointed. Details like putting pillows of different firmness on the bed made a good stay even better.H.I. Express excellence is consistent from city to city. Clean, comfortable rooms, a good breakfast and front desk staff that are always welcoming make H.I. Express an easy choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r312251636-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>312251636</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Average hotel stay next to the I-45</t>
+  </si>
+  <si>
+    <t>Stayed for four nights at the HI Express in Conroe during a business trip. The hotel itself is a classic HI Express hotel with a good standard. The hotel rooms are of good size and very clean, comfy bed, desk, TV, fridge and a nice bathroom. Complimentary WiFi.I didn't like the complimentary breakfast, though, the quality of the food was poor and I didn't like to use the plastic cups, plates and cutlery. Complimentary coffee and cookies were offered every evening. Next to the hotel, there are plenty of restaurants and shopping amenities. I found the personnel at both reception and housekeeping very welcoming and friendly. All in all, a good business hotel with a good connection to all amenities. Would go there again for a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Maria A, Front Office Manager at Holiday Inn Express Conroe, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for four nights at the HI Express in Conroe during a business trip. The hotel itself is a classic HI Express hotel with a good standard. The hotel rooms are of good size and very clean, comfy bed, desk, TV, fridge and a nice bathroom. Complimentary WiFi.I didn't like the complimentary breakfast, though, the quality of the food was poor and I didn't like to use the plastic cups, plates and cutlery. Complimentary coffee and cookies were offered every evening. Next to the hotel, there are plenty of restaurants and shopping amenities. I found the personnel at both reception and housekeeping very welcoming and friendly. All in all, a good business hotel with a good connection to all amenities. Would go there again for a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r309100374-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>309100374</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Birthday in conroe</t>
+  </si>
+  <si>
+    <t>We stayed at this holiday in causes we used our reward points I was presently surprised to be up graded to a suite. It was nice. Not outstanding like a 5 star hotel but for holiday inn express it was great.  Bed comfortable room clean and fresh. There was a bit of mold on the tub caulk but with all the humid in this area of country your going to have that at your home. Pool was nice but Door broken to come back in and had to walk through the dining areas but at 9 pm no one was in there Breakfast buffet is standard fair. For free what do you want.We enjoyed our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this holiday in causes we used our reward points I was presently surprised to be up graded to a suite. It was nice. Not outstanding like a 5 star hotel but for holiday inn express it was great.  Bed comfortable room clean and fresh. There was a bit of mold on the tub caulk but with all the humid in this area of country your going to have that at your home. Pool was nice but Door broken to come back in and had to walk through the dining areas but at 9 pm no one was in there Breakfast buffet is standard fair. For free what do you want.We enjoyed our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r281290596-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>281290596</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Just a one night stay</t>
+  </si>
+  <si>
+    <t>I was extremely tired when I stayed here, otherwise prob couldn't have slept. I found the bedding to be rather uncomfortable. Staff seemed unhappy and annoyed, but not rude. I would stay again if i just needed a place to sleep, but would think twice if I had my family with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>I was extremely tired when I stayed here, otherwise prob couldn't have slept. I found the bedding to be rather uncomfortable. Staff seemed unhappy and annoyed, but not rude. I would stay again if i just needed a place to sleep, but would think twice if I had my family with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r273805067-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>273805067</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Pretty good overall</t>
+  </si>
+  <si>
+    <t>This is a limited service hotel meaning no restaurant or lounge and while there were a few minor inconveniences, the hotel served its intended purpose as a clean comfortable place to sleep while in the area for 7 days on business. See my pros and cons below:Pros - Clean comfortable room, free Wi-Fi, guest laundry, plenty of restaurants in the area, (even a few within easy walking distance) a limited but free breakfast is offered each morning, good location, easy highway access.Cons – Slowest elevator I have ever seen in a 3 floor hotel, I honestly thought it was out of order several times during my stay. Pool was closed the entire week I was here.  I was on business and arrived back at the hotel each day well after dark so this didn’t affect me personally, however If I were here on vacation or traveling with kids, I would have been furious.All in all not bad for what it is, restaurant choices in the area are plentiful and there is a large grocery store right next door. Not sure what the story with the pool was, I didn’t ask as it didn’t concern me but it may be worth calling ahead of time to insure it is operational – Cheers!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded June 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a limited service hotel meaning no restaurant or lounge and while there were a few minor inconveniences, the hotel served its intended purpose as a clean comfortable place to sleep while in the area for 7 days on business. See my pros and cons below:Pros - Clean comfortable room, free Wi-Fi, guest laundry, plenty of restaurants in the area, (even a few within easy walking distance) a limited but free breakfast is offered each morning, good location, easy highway access.Cons – Slowest elevator I have ever seen in a 3 floor hotel, I honestly thought it was out of order several times during my stay. Pool was closed the entire week I was here.  I was on business and arrived back at the hotel each day well after dark so this didn’t affect me personally, however If I were here on vacation or traveling with kids, I would have been furious.All in all not bad for what it is, restaurant choices in the area are plentiful and there is a large grocery store right next door. Not sure what the story with the pool was, I didn’t ask as it didn’t concern me but it may be worth calling ahead of time to insure it is operational – Cheers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r261361155-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>261361155</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Ho Hum</t>
+  </si>
+  <si>
+    <t>Everything about this hotel room is just average.  I don't know how old it is or when it was last renovated, but it is beginning to show wear and tear.  It appears that parts of the carpet, (where furniture must be moved) haven't been vacuumed in years.  There is a layer of dust.  The bathroom does not have a vent/fan.  Therefore, towels can not dry out unless we bring them into the room and drape over chairs.  The bathroom floor is gross.  Again, I don't think the staff has the time or tools to really clean the floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Everything about this hotel room is just average.  I don't know how old it is or when it was last renovated, but it is beginning to show wear and tear.  It appears that parts of the carpet, (where furniture must be moved) haven't been vacuumed in years.  There is a layer of dust.  The bathroom does not have a vent/fan.  Therefore, towels can not dry out unless we bring them into the room and drape over chairs.  The bathroom floor is gross.  Again, I don't think the staff has the time or tools to really clean the floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r245402433-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>245402433</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>not bad at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have now stayed at this Holiday Inn 4 or 5 times and while it could do with a re-decoration, it is a comfortable place to stay and the staff are polite. Breakfast is a little boring but it isn't really aimed at people who stay there for 1 or 2 weeks but rather 1 or 2 days. Have tried other hotels and keep coming back to this one. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r226176486-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>226176486</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>My first night of traveling from Florida I heard a dog barking for about an hour</t>
+  </si>
+  <si>
+    <t>I had traveled for a day &amp; a half, I was exhausted and tired, after my customer service was okay, the room was clean and the beds were the best, after retiring for the evening, I was awake by a dog barking, for about and hour, I couldn't get back to sleep, then it was a family reunion going on ( ghetto) at breakfast they were not only eating everything in sight, but was loud, rude, kids running wild, to the point I had to go to the front desk, and ask management, to put things in perspective, overall my experiences were okay, I want to give a five star but sorry, overall a 3 MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>I had traveled for a day &amp; a half, I was exhausted and tired, after my customer service was okay, the room was clean and the beds were the best, after retiring for the evening, I was awake by a dog barking, for about and hour, I couldn't get back to sleep, then it was a family reunion going on ( ghetto) at breakfast they were not only eating everything in sight, but was loud, rude, kids running wild, to the point I had to go to the front desk, and ask management, to put things in perspective, overall my experiences were okay, I want to give a five star but sorry, overall a 3 More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r223287500-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>223287500</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Friendly environment, nice employees</t>
+  </si>
+  <si>
+    <t>I always try to stay at this place, everything is a walking distance away, employees treat us very well, rooms are comfortable, good internet service, and price is fair.Since 2007 my company gives me some options, sometimes it is full and there are good options around, but I never had any complain here.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r215078943-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>215078943</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Very clean, except for the edges in bathroom but that's being pretty picky. Elevator was fine. We stayed on the second floor. Pool looked really nice, just didn't have urge to swim. Wick wired fine. Nice looking business room and fitness room, again no urge, we just stayed one night. The king bed and pillows were soft enough to satisfy my wife and that means something! They did give me a military discount and I'm just a veteran.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r204994428-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>204994428</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Poor all around</t>
+  </si>
+  <si>
+    <t>Shift management was rude, but many of the front desk folks were nice. Elevator is so slow it's useless. We stayed on the third floor and ended up using the stairs the entire stay. Made mistakes on bill. Best part about this motel is the location. Would not recommend this hotel to a friend again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Shift management was rude, but many of the front desk folks were nice. Elevator is so slow it's useless. We stayed on the third floor and ended up using the stairs the entire stay. Made mistakes on bill. Best part about this motel is the location. Would not recommend this hotel to a friend again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r198840510-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>198840510</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Great Clean Accommodations</t>
+  </si>
+  <si>
+    <t>Lynn and I spent 4 nights recently at the Holiday Inn Express in Conroe.  We were in Houston for a wedding.  This hotel is immaculate.  Upon entering the floors gleamed.  The carpets on the lodging floors were sparkling clean like new.  The guest rooms are large...with big comfy king size beds.  Bathrooms are nice too with big shower heads.  Wifi was a little iffy...worked sometimes. Sometimes there was no service.  Breakfast was adequate...normal continental style, but with sausage, bacon and scrambled eggs. We didn't use the pool, but it was really beautiful. This is quite a comfortable place to hang your hat for a few days while in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Lynn and I spent 4 nights recently at the Holiday Inn Express in Conroe.  We were in Houston for a wedding.  This hotel is immaculate.  Upon entering the floors gleamed.  The carpets on the lodging floors were sparkling clean like new.  The guest rooms are large...with big comfy king size beds.  Bathrooms are nice too with big shower heads.  Wifi was a little iffy...worked sometimes. Sometimes there was no service.  Breakfast was adequate...normal continental style, but with sausage, bacon and scrambled eggs. We didn't use the pool, but it was really beautiful. This is quite a comfortable place to hang your hat for a few days while in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r189278692-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>189278692</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>Recommended by a friend and as I routinely stay at Holiday Inn when traveling as a Priority Member was expecting a restful stay.  As my wife has mobility issues when I checked in, I requested a room near the elevator.  The desk clerk did not even acknowledge that request and we ended up at the end of the hall.  I knew we were in trouble as the clock was blinking the wrong time and the room was heated to 77 degrees.  My wife was so tired she fell into bed to try to get some sleep.  I immediately turned the A/C on and took my shower.  It wasn't until I got into bed that I realized the bed and every thing in the room was hot and the A/C had no chance to cool the room.  Since I thought my wife was asleep, it was too late to try to change rooms.  We both had a miserable night.  The morning clerk apologized and gave us "points", but the damage was done.  WiFi was spotty; breakfast was okay. The clock ended up unplugged and stashed on the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Recommended by a friend and as I routinely stay at Holiday Inn when traveling as a Priority Member was expecting a restful stay.  As my wife has mobility issues when I checked in, I requested a room near the elevator.  The desk clerk did not even acknowledge that request and we ended up at the end of the hall.  I knew we were in trouble as the clock was blinking the wrong time and the room was heated to 77 degrees.  My wife was so tired she fell into bed to try to get some sleep.  I immediately turned the A/C on and took my shower.  It wasn't until I got into bed that I realized the bed and every thing in the room was hot and the A/C had no chance to cool the room.  Since I thought my wife was asleep, it was too late to try to change rooms.  We both had a miserable night.  The morning clerk apologized and gave us "points", but the damage was done.  WiFi was spotty; breakfast was okay. The clock ended up unplugged and stashed on the desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r186856473-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>186856473</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of nights to get out of the traffic of Houston. Extremely friendly and accomodating front end staff. Nice quiet atmosphere. Even the air conditioning was quiet! Free wifi, although spotty, worked good. Complimentary breakfast was ok. Kind of tasteless. The room &amp; rest of the building was very clean. Didn't get a chance to try out the pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r184433486-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>184433486</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Clean comfortable rooms</t>
+  </si>
+  <si>
+    <t>Quick check in and check out. Nice clean rooms with comfortable beds. The front desk accommodated our late arrival with no problem.  You have a choice of 3 restaurants in walking distance of the hotel without crossing any streets. Keep up the good work!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r166883488-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>166883488</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>A Wonderful Stay</t>
+  </si>
+  <si>
+    <t>My family used this hotel as the main accommodation for guests attending a wedding during the first weekend in July.  As it turns out, the hotel was also the prime accommodation for another wedding during the same weekend, so it was likely near-capacity.  Everything about our 2-night stay was wonderful.  We were allowed to check-in early since there were clean rooms available.  We stayed in a room with 2 very comfortable beds.  The room had the standard amenities, with a small refrigerator and microwave.  The hotel was well-maintained, the staff friendly and helpful and the pool was unique with a rock formation with a small waterfall coming out of it.  The daily complimentary breakfast was perfect, with a good assortment of items to choose from &amp; in the evening, the hotel provided cookies in the lobby for guests to enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My family used this hotel as the main accommodation for guests attending a wedding during the first weekend in July.  As it turns out, the hotel was also the prime accommodation for another wedding during the same weekend, so it was likely near-capacity.  Everything about our 2-night stay was wonderful.  We were allowed to check-in early since there were clean rooms available.  We stayed in a room with 2 very comfortable beds.  The room had the standard amenities, with a small refrigerator and microwave.  The hotel was well-maintained, the staff friendly and helpful and the pool was unique with a rock formation with a small waterfall coming out of it.  The daily complimentary breakfast was perfect, with a good assortment of items to choose from &amp; in the evening, the hotel provided cookies in the lobby for guests to enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r165797069-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>165797069</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>STAY HERE. I was on a business trip to Houston and Willis I have stayed here a few times in the past. The staff here is more committed to service the customer, use to be iffy. When I left in the morning I did not realize that I had left some papers, calendar and card folder. I called Donna and she said that she would send it. I was very surprised on Saturday that FEDEX showed up with the things. What a great team, great location.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r163001462-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>163001462</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Not too bad</t>
+  </si>
+  <si>
+    <t>This hotel is typical of the Holiday Inn Express chain. The room was clean and fairly comfortable. It was a bit worn in places. The one elevator is perhaps the slowest I've ever been on. It's way quicker to walk to the end of the hall and take the stairs. The breakfast was pretty good and the staff were friendly. The pool was nice but the workout room was inadequate. It only had two treadmills and one bike, that's all. The cookies are nice in the evening if you're there at the right time. It was an okay stay but I prefer the Hampton Inn next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded June 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is typical of the Holiday Inn Express chain. The room was clean and fairly comfortable. It was a bit worn in places. The one elevator is perhaps the slowest I've ever been on. It's way quicker to walk to the end of the hall and take the stairs. The breakfast was pretty good and the staff were friendly. The pool was nice but the workout room was inadequate. It only had two treadmills and one bike, that's all. The cookies are nice in the evening if you're there at the right time. It was an okay stay but I prefer the Hampton Inn next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r157686816-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>157686816</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>We were passing through the Houston area and needed a hotel for the night.  Quite honestly I didn't care where we stayed so long as it was clean, convenient and reasonable priced.  I was pleasantly surprised what we found.  The staff were very welcoming, friendly and pleasant.  The hotel seemed fairly new and well maintained.  Even though we were on there for about 8 hours - it was a very enjoyable stay!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r147389049-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>147389049</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Super nice!</t>
+  </si>
+  <si>
+    <t>We just stayed at this hotel for one night while on a short trip to Conroe.  We've stayed at Holiday Inn Express in other places, but this was our first time at this particular property.  It was one of the nicest we have ever stayed in--very clean, accessible, warm, and welcoming.  The beds were comfy and the breakfast was delicious.  We will stay here again when we are in the Conroe area.  Thanks to the staff for making our stay pleasant!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded December 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2012</t>
+  </si>
+  <si>
+    <t>We just stayed at this hotel for one night while on a short trip to Conroe.  We've stayed at Holiday Inn Express in other places, but this was our first time at this particular property.  It was one of the nicest we have ever stayed in--very clean, accessible, warm, and welcoming.  The beds were comfy and the breakfast was delicious.  We will stay here again when we are in the Conroe area.  Thanks to the staff for making our stay pleasant!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r145821934-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>145821934</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>I stayed overnight with my two children.  The staff was very nice and accommodating.  Room was clean, smelled clean, and very comfortable.  Breakfast was great and the area was neat and clean.  Used the laundry facilities and the area was clean as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded December 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2012</t>
+  </si>
+  <si>
+    <t>I stayed overnight with my two children.  The staff was very nice and accommodating.  Room was clean, smelled clean, and very comfortable.  Breakfast was great and the area was neat and clean.  Used the laundry facilities and the area was clean as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r142233967-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>142233967</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>The hotel staff was great during check-in.  They gave us goodie bags with water, chips and cookies. The room was clean.  The breakfast was good.  They had biscuits with the GOOD gravy.  They had a great shampoo.  It smelled kind of cinamonny.  I have absolutely no complaints.  The stay was perfect!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r139911258-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>139911258</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Find Someplace Else</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel in every September for the past three years.  This year, however, they have a new deal for their guests.  They will charge you for the room the day you make the reservation.  Then, if you plane is delayed, or some other event causes you to have to cancel, then you will not get your money refunded.  They will keep it and rent it out to someone else that same evening.  Isn't that a great deal.  You get to pay for nothing.  If you want a room with a "refundable" rate, it will cost you about 45% more money, and then if you have to cancel, you will get hit with a stiff cancellation fee.  On top of all of this, when you make the reservation, you get to talk with a non english speaking person in Pakistan, Pago-Pago, or some other like location.  I don't know why Holiday Inn has taken the path of a shyster business.  I used to enjoy my stay there.  But with these new rules they have lost my business forever.  Never again...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel in every September for the past three years.  This year, however, they have a new deal for their guests.  They will charge you for the room the day you make the reservation.  Then, if you plane is delayed, or some other event causes you to have to cancel, then you will not get your money refunded.  They will keep it and rent it out to someone else that same evening.  Isn't that a great deal.  You get to pay for nothing.  If you want a room with a "refundable" rate, it will cost you about 45% more money, and then if you have to cancel, you will get hit with a stiff cancellation fee.  On top of all of this, when you make the reservation, you get to talk with a non english speaking person in Pakistan, Pago-Pago, or some other like location.  I don't know why Holiday Inn has taken the path of a shyster business.  I used to enjoy my stay there.  But with these new rules they have lost my business forever.  Never again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r137374205-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>137374205</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>More than pleased</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because we were having a business training  in the hotel.  The room for the training was small but large enough for the 20 people attending. The bed was very comfortable. Pool pleasant and clean.  Breakfast was satisfactory.  Eggs, bacon, biscuits &amp; gravy, cereal, pancakes, etc.Staff was friendly &amp; helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r132015515-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>132015515</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>I was in the area on business, and was very pleased with this hotel.  The room was clean and in very good condition.  The staff was friendly and professional.  There were several restaurants literally across the parking lot, as well as a shopping center with a grocery store.  This hotel is definitely on my list of places to stay more than once!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r131949609-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>131949609</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Quiet, clean, and cozy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was friendly and very helpful. The rooms were very clean. I stayed for 4 nights while on a business trip. The location was a little wierd to get to as it seems to sit in a parking lot of another business. There are restaurants litterally within walking distance, as this hotel is in the same parking lot. I am returning to the area for a visit in the near future and am staying here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r129507250-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>129507250</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Stay in Conroe, Texas</t>
+  </si>
+  <si>
+    <t>Very very nice hotel!  Rooms are clean and very quite!  Staff is very nice and asked if there was anything I needed.  Close to great shopping and excellent pleaces to eat, very close by!  Plan on staying there again soon!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r121928072-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>121928072</t>
+  </si>
+  <si>
+    <t>12/20/2011</t>
+  </si>
+  <si>
+    <t>Excellent service...and warm cookies and milk!</t>
+  </si>
+  <si>
+    <t>The staff here was very friendly.  Each nite there was fresh baked cookies and milk from 7-9.  The property was clean and has a beautiful waterfall at the pool.  I accidentally left my kindle wall plug in the wall when I disconnected.  I called them when we got home, and they sent it right back to me FedEx.  The only issue we had was the sheets did not seem to fit the king size bed - they popped off every nite.  Other than that - great experience.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r119872458-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>119872458</t>
+  </si>
+  <si>
+    <t>10/29/2011</t>
+  </si>
+  <si>
+    <t>great....</t>
+  </si>
+  <si>
+    <t>in town on business...got there late.......desk help was great!! Had a reservation at another hotel...they couldn't find the reservation...only had a smoking room..which we are not smokers...but desk said they would spray it...but we had essential oils my wife uses...and used clove oil in water...to spray in the room..and it took 90% of the smell out!! Desk help was very accommondating!! Kind of hard to get to because of highway construction...but worth the trouble!!!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r118663847-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>118663847</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>Convenient location.  Bad access.</t>
+  </si>
+  <si>
+    <t>We stayed a Sunday night in Conroe to attend a concert at the Cynthia Woods Mitchell Pavillion.  Very convenient location for our travels.  Beware that there is no entrance off the service road where the sign is.  The new, unmarked road is before the hotel, just past Kroger, or better yet, cut through the Kroger parking lot.  If you miss it, you have to do the next exit loop back around; yes we did it.  Also, we were awakened at 7AM (morning after concert) by what sounded like someone doing aerobics in the room above us.  We were in 100 and I called 200 and asked them to be a little less heavy footed.  They said OK.  I don't know if they were really doing some indoor track and field exercise or the ceilings were just thin.  We were not acknowleded as Priority Club members at checkin, and no goodie bag.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We stayed a Sunday night in Conroe to attend a concert at the Cynthia Woods Mitchell Pavillion.  Very convenient location for our travels.  Beware that there is no entrance off the service road where the sign is.  The new, unmarked road is before the hotel, just past Kroger, or better yet, cut through the Kroger parking lot.  If you miss it, you have to do the next exit loop back around; yes we did it.  Also, we were awakened at 7AM (morning after concert) by what sounded like someone doing aerobics in the room above us.  We were in 100 and I called 200 and asked them to be a little less heavy footed.  They said OK.  I don't know if they were really doing some indoor track and field exercise or the ceilings were just thin.  We were not acknowleded as Priority Club members at checkin, and no goodie bag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r109742136-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>109742136</t>
+  </si>
+  <si>
+    <t>05/24/2011</t>
+  </si>
+  <si>
+    <t>Fabulous bed!</t>
+  </si>
+  <si>
+    <t>We agree with all the other reviewers that love this hotel.  The bed was sooo comfortable!  The best bed ever and our bed at home is a tempurpedic.  This hotel is very clean and seems new.  Cookies and milk in the lobby at check-in.  Reasonable rates, too.  Nice, bright atmosphere.  Very relaxing.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r103323391-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>103323391</t>
+  </si>
+  <si>
+    <t>04/08/2011</t>
+  </si>
+  <si>
+    <t>Great management-Unusual Review Perhaps?</t>
+  </si>
+  <si>
+    <t>Well, I suppose it is difficult to review a hotel that you have never actually personally stayed in, but this would be my exception.....  
+  My Girlfriend recently stayed in this hotel while attending a continuing education course in the Conroe area.  To make a long story short, due to circumstances she had to make a almost 5 hour drive the morning of her course, so I decided to send her some flowers that would be waiting for her when she arrived, just to lessen the stress of an already long and tedious day.  I found a local florist, and made a call to the hotel confirming with the front desk that they would in fact accpet the delievery on her behalf...great... well, I decided to send an email as a follow up to the hotel, just to confirm, perhaps with a manager, not having a lot of expectations, well I was pleasently surprised when the properties manager not only replied, but also offered to place them in her room for her, and contact me via email when they arrived, and were in place!!
+   This may seem trivial to some of you, but I deal with alot of managers of differing kinds of establishments in my travels, often times via email due to communication issues abroad, and I have to say that the manager here at this Hotel was one of the most accomadating I have had the pleasure of dealing...Well, I suppose it is difficult to review a hotel that you have never actually personally stayed in, but this would be my exception.....    My Girlfriend recently stayed in this hotel while attending a continuing education course in the Conroe area.  To make a long story short, due to circumstances she had to make a almost 5 hour drive the morning of her course, so I decided to send her some flowers that would be waiting for her when she arrived, just to lessen the stress of an already long and tedious day.  I found a local florist, and made a call to the hotel confirming with the front desk that they would in fact accpet the delievery on her behalf...great... well, I decided to send an email as a follow up to the hotel, just to confirm, perhaps with a manager, not having a lot of expectations, well I was pleasently surprised when the properties manager not only replied, but also offered to place them in her room for her, and contact me via email when they arrived, and were in place!!   This may seem trivial to some of you, but I deal with alot of managers of differing kinds of establishments in my travels, often times via email due to communication issues abroad, and I have to say that the manager here at this Hotel was one of the most accomadating I have had the pleasure of dealing with!  This was a somewhat unusual request, and she was more than willing and happy to put forth the effort to help me make my GF's day just a littel more bearable!  Thanks HIE Conroe, and double thanks to the managment team! Couldnt have been better!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Well, I suppose it is difficult to review a hotel that you have never actually personally stayed in, but this would be my exception.....  
+  My Girlfriend recently stayed in this hotel while attending a continuing education course in the Conroe area.  To make a long story short, due to circumstances she had to make a almost 5 hour drive the morning of her course, so I decided to send her some flowers that would be waiting for her when she arrived, just to lessen the stress of an already long and tedious day.  I found a local florist, and made a call to the hotel confirming with the front desk that they would in fact accpet the delievery on her behalf...great... well, I decided to send an email as a follow up to the hotel, just to confirm, perhaps with a manager, not having a lot of expectations, well I was pleasently surprised when the properties manager not only replied, but also offered to place them in her room for her, and contact me via email when they arrived, and were in place!!
+   This may seem trivial to some of you, but I deal with alot of managers of differing kinds of establishments in my travels, often times via email due to communication issues abroad, and I have to say that the manager here at this Hotel was one of the most accomadating I have had the pleasure of dealing...Well, I suppose it is difficult to review a hotel that you have never actually personally stayed in, but this would be my exception.....    My Girlfriend recently stayed in this hotel while attending a continuing education course in the Conroe area.  To make a long story short, due to circumstances she had to make a almost 5 hour drive the morning of her course, so I decided to send her some flowers that would be waiting for her when she arrived, just to lessen the stress of an already long and tedious day.  I found a local florist, and made a call to the hotel confirming with the front desk that they would in fact accpet the delievery on her behalf...great... well, I decided to send an email as a follow up to the hotel, just to confirm, perhaps with a manager, not having a lot of expectations, well I was pleasently surprised when the properties manager not only replied, but also offered to place them in her room for her, and contact me via email when they arrived, and were in place!!   This may seem trivial to some of you, but I deal with alot of managers of differing kinds of establishments in my travels, often times via email due to communication issues abroad, and I have to say that the manager here at this Hotel was one of the most accomadating I have had the pleasure of dealing with!  This was a somewhat unusual request, and she was more than willing and happy to put forth the effort to help me make my GF's day just a littel more bearable!  Thanks HIE Conroe, and double thanks to the managment team! Couldnt have been better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r65962493-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>65962493</t>
+  </si>
+  <si>
+    <t>05/31/2010</t>
+  </si>
+  <si>
+    <t>Much nicer than I expected</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on May 28 and 29 with a large group attending a wedding.  The staff was very accommodating, and let those of us not at the rehearsal dinner, grill burgers out by the pool on Friday night.  I had read the hotel opened several years ago, so I was surprised when I saw how nicely it has been maintained.  The beds were comfortable and we had our choice of soft or firm pillows.  The room had a microwave and refrigerator.  The free breakfast was in a nice, large room with several hot items on the menu.   It is probably the nicest Holiday Inn Express I have stayed in.  It's not the Ritz, but was certainly an excellent quality hotel for the price and location.  There is a Chili's, Texas Roadhouse, Kroger, Denny's, Subway, and Pizza Hut a within walking distance. It was a sort drive to Heather's Glen, where the wedding was held.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on May 28 and 29 with a large group attending a wedding.  The staff was very accommodating, and let those of us not at the rehearsal dinner, grill burgers out by the pool on Friday night.  I had read the hotel opened several years ago, so I was surprised when I saw how nicely it has been maintained.  The beds were comfortable and we had our choice of soft or firm pillows.  The room had a microwave and refrigerator.  The free breakfast was in a nice, large room with several hot items on the menu.   It is probably the nicest Holiday Inn Express I have stayed in.  It's not the Ritz, but was certainly an excellent quality hotel for the price and location.  There is a Chili's, Texas Roadhouse, Kroger, Denny's, Subway, and Pizza Hut a within walking distance. It was a sort drive to Heather's Glen, where the wedding was held.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r26176684-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>26176684</t>
+  </si>
+  <si>
+    <t>03/14/2009</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>We are priority club members. We first arrived with a reservation for a regular room, and upon check-in we requested an upgrade to a suite. The front desk employees fulfilled our request immediately with no problems. The upgraded room is very clean and better than we expected. The property itself is very nice, clean, and tidy. The employees are very friendly and provide great service as well.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r24039073-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>24039073</t>
+  </si>
+  <si>
+    <t>01/30/2009</t>
+  </si>
+  <si>
+    <t>Decent Hotel, slighly High on price for some.</t>
+  </si>
+  <si>
+    <t>The hotel is nice and mostly clean, one of my party members did have 2 cockroaches in his room. ( i cannot and will not verify this lol). The water in my faucet (afternoon time)  takes entirely too long (30sec - 1 min) to warm up, I can only fathom that the cleaning lady's take all the hot water when they are cleaning.  
+The breakfast is decent, Evening snack is cookies and milk, I never have the nerve to drink milk that's been sitting out near the check in counter for goodness sakes only knows how long, and would be embarrassed to feel up the milk pitcher to test the temperature. 
+I am staying in this hotel for a month, and I feel I am paying a little too much, and if I was staying in this hotel for a one night's sleep, I'd recommend finding a place a tad cheaper. 
+They do give a one time free PASS to Gold's GYM. The gym is very nice and if I wasn't using this every day, I would probably move to a cheaper hotel. 
+I am frustrated with the shortness of their drapes covering my one window, I need DARK to sleep, and since there was light coming through my window everynight, it seems like it was Dawn in my room all night long, until I got fed up and stacked the 4 extra pillows into the window frame to cover...The hotel is nice and mostly clean, one of my party members did have 2 cockroaches in his room. ( i cannot and will not verify this lol). The water in my faucet (afternoon time)  takes entirely too long (30sec - 1 min) to warm up, I can only fathom that the cleaning lady's take all the hot water when they are cleaning.  The breakfast is decent, Evening snack is cookies and milk, I never have the nerve to drink milk that's been sitting out near the check in counter for goodness sakes only knows how long, and would be embarrassed to feel up the milk pitcher to test the temperature. I am staying in this hotel for a month, and I feel I am paying a little too much, and if I was staying in this hotel for a one night's sleep, I'd recommend finding a place a tad cheaper. They do give a one time free PASS to Gold's GYM. The gym is very nice and if I wasn't using this every day, I would probably move to a cheaper hotel. I am frustrated with the shortness of their drapes covering my one window, I need DARK to sleep, and since there was light coming through my window everynight, it seems like it was Dawn in my room all night long, until I got fed up and stacked the 4 extra pillows into the window frame to cover the intruding light. The TV...... isnt really a child friendly sight. I was watching tv one night and the signal just disappeared. I changed the channel and was greeted by PORN. I went to the desk and was told it happens everytime one certain room rents Porn in the hotel. They haven't tracked it down yet.... wow... And if you turn the channel to the pay per view channel ( its not auto added you must manually change the channel to it) you can watch a snowly porn fest if you so desire. So mom's ... Hide the remote. You never know what my been seen, Porn at 8 or Porn in full color at 9 on HBO channel 16.  O and another thing,... loads of nice good food around, just remember when you come back and use the bathroom ... NO FAN .... having to seal off the bathroom for 3 hours is no fun. I just go to the first floor and use that one.. sad but true.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>The hotel is nice and mostly clean, one of my party members did have 2 cockroaches in his room. ( i cannot and will not verify this lol). The water in my faucet (afternoon time)  takes entirely too long (30sec - 1 min) to warm up, I can only fathom that the cleaning lady's take all the hot water when they are cleaning.  
+The breakfast is decent, Evening snack is cookies and milk, I never have the nerve to drink milk that's been sitting out near the check in counter for goodness sakes only knows how long, and would be embarrassed to feel up the milk pitcher to test the temperature. 
+I am staying in this hotel for a month, and I feel I am paying a little too much, and if I was staying in this hotel for a one night's sleep, I'd recommend finding a place a tad cheaper. 
+They do give a one time free PASS to Gold's GYM. The gym is very nice and if I wasn't using this every day, I would probably move to a cheaper hotel. 
+I am frustrated with the shortness of their drapes covering my one window, I need DARK to sleep, and since there was light coming through my window everynight, it seems like it was Dawn in my room all night long, until I got fed up and stacked the 4 extra pillows into the window frame to cover...The hotel is nice and mostly clean, one of my party members did have 2 cockroaches in his room. ( i cannot and will not verify this lol). The water in my faucet (afternoon time)  takes entirely too long (30sec - 1 min) to warm up, I can only fathom that the cleaning lady's take all the hot water when they are cleaning.  The breakfast is decent, Evening snack is cookies and milk, I never have the nerve to drink milk that's been sitting out near the check in counter for goodness sakes only knows how long, and would be embarrassed to feel up the milk pitcher to test the temperature. I am staying in this hotel for a month, and I feel I am paying a little too much, and if I was staying in this hotel for a one night's sleep, I'd recommend finding a place a tad cheaper. They do give a one time free PASS to Gold's GYM. The gym is very nice and if I wasn't using this every day, I would probably move to a cheaper hotel. I am frustrated with the shortness of their drapes covering my one window, I need DARK to sleep, and since there was light coming through my window everynight, it seems like it was Dawn in my room all night long, until I got fed up and stacked the 4 extra pillows into the window frame to cover the intruding light. The TV...... isnt really a child friendly sight. I was watching tv one night and the signal just disappeared. I changed the channel and was greeted by PORN. I went to the desk and was told it happens everytime one certain room rents Porn in the hotel. They haven't tracked it down yet.... wow... And if you turn the channel to the pay per view channel ( its not auto added you must manually change the channel to it) you can watch a snowly porn fest if you so desire. So mom's ... Hide the remote. You never know what my been seen, Porn at 8 or Porn in full color at 9 on HBO channel 16.  O and another thing,... loads of nice good food around, just remember when you come back and use the bathroom ... NO FAN .... having to seal off the bathroom for 3 hours is no fun. I just go to the first floor and use that one.. sad but true.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r22405947-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>22405947</t>
+  </si>
+  <si>
+    <t>12/03/2008</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>It seem no matter where I go, I am very satisfied with Holiday Inn Express.  The room was very clean, and the beds are super comfortable.  There are lots of good breakfast choices, and they even had milk &amp; cookies available during the evening hours.  When I had to extend my stay by one night, it was taken care of without problem.  When I asked the front desk about purchasing more shampoo and soap to take with me, I was given several bottles for free. I cannot think of anything negative to say about this hotel.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r10206411-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>10206411</t>
+  </si>
+  <si>
+    <t>10/21/2007</t>
+  </si>
+  <si>
+    <t>Texan Hospitality</t>
+  </si>
+  <si>
+    <t>We usually try to stay at HI Express when we travel because of the consistent high level of quality, no matter where you stay. They have large, comfortable rooms, usually a pool (we have kids, so that's VERY important), and of course the great morning breakfast spread with those INCREDIBLE cinnamon rolls!This hotel meets the levels of quality and consistency we expect when we stay at HI Express. It's a pretty new hotel - LOVE that "New Hotel" smell! The room was big and clean, as was the bathroom. HI Express now offers 2 types of pillows on the beds, and labels them "Soft" and "Firm", which is great!A funny note about the breakfast - They have the make-your-own waffle station, and the waffle iron is shaped like Texas!  : )I rated this hotel "above average", which to me is the standard for all HI Express hotels. So this hotel meets those high standards and I would highly recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>We usually try to stay at HI Express when we travel because of the consistent high level of quality, no matter where you stay. They have large, comfortable rooms, usually a pool (we have kids, so that's VERY important), and of course the great morning breakfast spread with those INCREDIBLE cinnamon rolls!This hotel meets the levels of quality and consistency we expect when we stay at HI Express. It's a pretty new hotel - LOVE that "New Hotel" smell! The room was big and clean, as was the bathroom. HI Express now offers 2 types of pillows on the beds, and labels them "Soft" and "Firm", which is great!A funny note about the breakfast - They have the make-your-own waffle station, and the waffle iron is shaped like Texas!  : )I rated this hotel "above average", which to me is the standard for all HI Express hotels. So this hotel meets those high standards and I would highly recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r7326940-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>7326940</t>
+  </si>
+  <si>
+    <t>04/09/2007</t>
+  </si>
+  <si>
+    <t>Loved it!!</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel. We had the 2 King Suite-perfect- lots of room, the beds were great. The location was perfect. Staff was wonderful and the evening snack of fresh baked cookies and milk was a bonus. The breakfast was omelets, biscuts &amp; gravy, waffles, fruit, yogurt-yummy..We will be back.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r5435087-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>5435087</t>
+  </si>
+  <si>
+    <t>07/05/2006</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff</t>
+  </si>
+  <si>
+    <t>My mom and I just got back from a mother-daughter shopping trip, and we spent the night at the Holiday Inn Express in Conroe. It's right off of I-45, but surprisingly quiet.   It's close to the outlet mall, and construction is underway for a new shopping center with a TJ Maxx, Kohl's and more just down the road!  There's a Texas Roadhouse (great place to eat, by the way) next door.We debated whether to stay at this location, or the Holiday Inn Express closer to the Woodlands Mall (since that was a shopping stop for us!), but we decided to stay in Conroe due to the heavy traffic on I-45 in the Woodlands area.  We're so glad we stayed here!  The staff at the front desk was very friendly.  Our rooms were very nice, and the prices are so reasonable!  The AARP rate is just $75.95 a night! The pool area is beautiful, and the room was very clean and nice. There was a mini refrigerator and microwave in our room, and continental breakfast was served in a lovely downstairs room. We felt safer with the interior hallways, and were appreciative of their "zero tolerance for inconsiderate behavior" policy, which is posted in the rooms.  What a great night's sleep we got in this lovely, quiet hotel.  We'll definitely return on our next shopping weekend!MoreShow less</t>
+  </si>
+  <si>
+    <t>My mom and I just got back from a mother-daughter shopping trip, and we spent the night at the Holiday Inn Express in Conroe. It's right off of I-45, but surprisingly quiet.   It's close to the outlet mall, and construction is underway for a new shopping center with a TJ Maxx, Kohl's and more just down the road!  There's a Texas Roadhouse (great place to eat, by the way) next door.We debated whether to stay at this location, or the Holiday Inn Express closer to the Woodlands Mall (since that was a shopping stop for us!), but we decided to stay in Conroe due to the heavy traffic on I-45 in the Woodlands area.  We're so glad we stayed here!  The staff at the front desk was very friendly.  Our rooms were very nice, and the prices are so reasonable!  The AARP rate is just $75.95 a night! The pool area is beautiful, and the room was very clean and nice. There was a mini refrigerator and microwave in our room, and continental breakfast was served in a lovely downstairs room. We felt safer with the interior hallways, and were appreciative of their "zero tolerance for inconsiderate behavior" policy, which is posted in the rooms.  What a great night's sleep we got in this lovely, quiet hotel.  We'll definitely return on our next shopping weekend!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1808,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1840,3758 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>217</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>286</v>
+      </c>
+      <c r="X32" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s">
+        <v>293</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>285</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>299</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>318</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>343</v>
+      </c>
+      <c r="X40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>353</v>
+      </c>
+      <c r="J42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K42" t="s">
+        <v>355</v>
+      </c>
+      <c r="L42" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>357</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>358</v>
+      </c>
+      <c r="X42" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>366</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" t="s">
+        <v>368</v>
+      </c>
+      <c r="K44" t="s">
+        <v>369</v>
+      </c>
+      <c r="L44" t="s">
+        <v>370</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>371</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>382</v>
+      </c>
+      <c r="O46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>384</v>
+      </c>
+      <c r="J47" t="s">
+        <v>385</v>
+      </c>
+      <c r="K47" t="s">
+        <v>386</v>
+      </c>
+      <c r="L47" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>388</v>
+      </c>
+      <c r="O47" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L49" t="s">
+        <v>399</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>403</v>
+      </c>
+      <c r="J50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s">
+        <v>406</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>407</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s">
+        <v>411</v>
+      </c>
+      <c r="L51" t="s">
+        <v>412</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>415</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" t="s">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s">
+        <v>419</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>422</v>
+      </c>
+      <c r="J53" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" t="s">
+        <v>424</v>
+      </c>
+      <c r="L53" t="s">
+        <v>425</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>426</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>428</v>
+      </c>
+      <c r="J54" t="s">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s">
+        <v>430</v>
+      </c>
+      <c r="L54" t="s">
+        <v>431</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>432</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>434</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>435</v>
+      </c>
+      <c r="J55" t="s">
+        <v>436</v>
+      </c>
+      <c r="K55" t="s">
+        <v>437</v>
+      </c>
+      <c r="L55" t="s">
+        <v>438</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>439</v>
+      </c>
+      <c r="O55" t="s">
+        <v>217</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>440</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>441</v>
+      </c>
+      <c r="J56" t="s">
+        <v>442</v>
+      </c>
+      <c r="K56" t="s">
+        <v>443</v>
+      </c>
+      <c r="L56" t="s">
+        <v>444</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>445</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>452</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>454</v>
+      </c>
+      <c r="J58" t="s">
+        <v>455</v>
+      </c>
+      <c r="K58" t="s">
+        <v>456</v>
+      </c>
+      <c r="L58" t="s">
+        <v>457</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_315.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_315.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r604400713-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>55667</t>
+  </si>
+  <si>
+    <t>98555</t>
+  </si>
+  <si>
+    <t>604400713</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>lovely hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">within walking distance to grocery, nail shop and restaurants.  Loved the bed!   Slept like a baby!  Great Breakfast.Swimming pool was relaxing and tropical.  If in Conroe again this is the place to stay!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r595310322-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>595310322</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archery tournament </t>
+  </si>
+  <si>
+    <t>We stay here for two nights. We had three rooms all nice. Good location to restaurants and stores only complaint I had was booking the room took thirty minutes on the phone had to give credit card numbers  an name three time. I guess for each rooms.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r585337774-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
-    <t>55667</t>
-  </si>
-  <si>
-    <t>98555</t>
-  </si>
-  <si>
     <t>585337774</t>
   </si>
   <si>
@@ -198,9 +234,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Do not let outdated reviews fool you! This hotel is being POORLY managed!!! Did I have a clean room with cold AC ...yes but that ends the positives. I jumped in the shower only to realize our bathroom had NO TOWELS!!! Not one washcloth, hand towel or bath towel except for the floor mat. My husband called front desk while I waited only to be told we could only have two! We had 4 people to take showers. At least she brought the two right away but we never received the additional 2 we were promised. Free breakfast pretty typical of holiday inn. No complaints there but went back to room to realize no soap in any form was in the hotel. There was also no hot water! There were 3 housekeeping carts on our floor and none had hand soap! Called front desk who said they would put in a note to management but no offer of bringing us soap! Said we could change room if no hot water but we were checking out. Upon Checkout my husband brought up all of our concerns which was only met with excuses, that it was maintenance that didn’t order soap so they were giving extra shampoo bottles in the shower. I must assume based on this comment that no one in this hotel had hand soap to wash after using the restroom! Gross! Plus they hoarded towels which had us not...Do not let outdated reviews fool you! This hotel is being POORLY managed!!! Did I have a clean room with cold AC ...yes but that ends the positives. I jumped in the shower only to realize our bathroom had NO TOWELS!!! Not one washcloth, hand towel or bath towel except for the floor mat. My husband called front desk while I waited only to be told we could only have two! We had 4 people to take showers. At least she brought the two right away but we never received the additional 2 we were promised. Free breakfast pretty typical of holiday inn. No complaints there but went back to room to realize no soap in any form was in the hotel. There was also no hot water! There were 3 housekeeping carts on our floor and none had hand soap! Called front desk who said they would put in a note to management but no offer of bringing us soap! Said we could change room if no hot water but we were checking out. Upon Checkout my husband brought up all of our concerns which was only met with excuses, that it was maintenance that didn’t order soap so they were giving extra shampoo bottles in the shower. I must assume based on this comment that no one in this hotel had hand soap to wash after using the restroom! Gross! Plus they hoarded towels which had us not being able to shower before leaving hotel. We paid over $120 for a room without basic amenities and a staff that could not contact management. So Donna Dean if you ever wish to answer your phone we would love to speak to you about this.More</t>
   </si>
   <si>
@@ -232,6 +265,63 @@
   </si>
   <si>
     <t>I made reservations for 3 Executive King rooms and a Standard King room. I knew we were not going to be able to check in until midnight that night, so on my way to the area, I stopped in around 11:00 am that morning and explained that all 4 rooms would not be checking in until very late and please DO NOT GIVE OUR ROOMS AWAY. I explained that I had read reviews on the hotel and that when people did not check in on time, their rooms were given away. I was assured that that would not happen and the Front Desk put notes in while I was standing there. I was again assured that would not happen and we would have our 3 Executive King rooms waiting for us and 1 Standard King. Well.... after a long hard, exhausting day, we arrived at the hotel and guess what???? One of our rooms was given away. So now instead of 3 King Executive rooms, we received 2 King Executive and 2 standard King room. And they were all on 3 different floors. To say that I was UPSET would be putting it mildly. I took the keys and grumpily handed room assignments out. I am not even going to review anymore of the hotel amenities because I am still upset. I would just say that if you can find another hotel to stay at that delivers what they promise...I made reservations for 3 Executive King rooms and a Standard King room. I knew we were not going to be able to check in until midnight that night, so on my way to the area, I stopped in around 11:00 am that morning and explained that all 4 rooms would not be checking in until very late and please DO NOT GIVE OUR ROOMS AWAY. I explained that I had read reviews on the hotel and that when people did not check in on time, their rooms were given away. I was assured that that would not happen and the Front Desk put notes in while I was standing there. I was again assured that would not happen and we would have our 3 Executive King rooms waiting for us and 1 Standard King. Well.... after a long hard, exhausting day, we arrived at the hotel and guess what???? One of our rooms was given away. So now instead of 3 King Executive rooms, we received 2 King Executive and 2 standard King room. And they were all on 3 different floors. To say that I was UPSET would be putting it mildly. I took the keys and grumpily handed room assignments out. I am not even going to review anymore of the hotel amenities because I am still upset. I would just say that if you can find another hotel to stay at that delivers what they promise and what you pay for, stay there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r563186620-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>563186620</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Beware of this hotel in February!</t>
+  </si>
+  <si>
+    <t>I will start by saying my husband and I have been to this hotel several times over the last few years and have always had an excellent experience. However, this past weekend was the exception and one I had to inform everyone about! Apparently we arrived during a Truck Show that takes place at this hotel every year. Oddly, these individuals do their partying right outside the lobby (under the porte cochere) and party into the wee hours of the morning! They drink, are loud, and don't seem to know where the garbage is because several beer bottles and cans were strewn about the parking lot and under cars! As it happened, our room was FACING the outside so we were doomed to a night of raucous behavior. When I was still being awoken at 1:30am, I called to complain to the manager on duty, who told me she wasn't going to tell 80 people to be quiet! When I also mentioned there was a "party" going on above our heads on the 3rd floor, she told me not to yell at her and promptly hung up on me! I have never been so angry and frustrated at the total incompetence of hotel staff in my LIFE!  So - that's my story and I hope it helps someone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>I will start by saying my husband and I have been to this hotel several times over the last few years and have always had an excellent experience. However, this past weekend was the exception and one I had to inform everyone about! Apparently we arrived during a Truck Show that takes place at this hotel every year. Oddly, these individuals do their partying right outside the lobby (under the porte cochere) and party into the wee hours of the morning! They drink, are loud, and don't seem to know where the garbage is because several beer bottles and cans were strewn about the parking lot and under cars! As it happened, our room was FACING the outside so we were doomed to a night of raucous behavior. When I was still being awoken at 1:30am, I called to complain to the manager on duty, who told me she wasn't going to tell 80 people to be quiet! When I also mentioned there was a "party" going on above our heads on the 3rd floor, she told me not to yell at her and promptly hung up on me! I have never been so angry and frustrated at the total incompetence of hotel staff in my LIFE!  So - that's my story and I hope it helps someone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r555666415-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>555666415</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Remod not finished</t>
+  </si>
+  <si>
+    <t>Remolding is underway and not finished.  I stayed in room 106 and there was sawdust on the floor, a hole in the wall behind the TV dust on all the shelves and furniture and putty on one of the electrical outlets.  Obviously this room should not have been rented.  I arrived very late and was very tired and just wanted a good clean warm bed for the night and that was OK.  I told the desk clerk and another employee behind the desk of the situation when i checked out and the response was, "Oh, I'm sorry."  this was way below par for H I.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Remolding is underway and not finished.  I stayed in room 106 and there was sawdust on the floor, a hole in the wall behind the TV dust on all the shelves and furniture and putty on one of the electrical outlets.  Obviously this room should not have been rented.  I arrived very late and was very tired and just wanted a good clean warm bed for the night and that was OK.  I told the desk clerk and another employee behind the desk of the situation when i checked out and the response was, "Oh, I'm sorry."  this was way below par for H I.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r542344449-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
@@ -318,24 +408,63 @@
     <t>They are currently in a big renovation project and the hotel will look great when finished. I would wait until it’s complete as it’s a mess and dust everywhere. My room was updated and nice with comfortable beds. I’ll be back when complete and review again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r516394781-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>516394781</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>No EV Charging Currently (Tesla Driver)</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel to book for my son's weekend soccer tournament.  I drive a Tesla so was looking for a hotel that provided EV charging.     I called a few hotels, and was told that this Holiday Inn was the only one in the area with EV charging.  I called this hotel's front desk to confirm this as well.   However, when I got to the hotel, there was no EV chargers visible, and the young lady behind the counter wasn't aware of one either.    Maybe because there was a ton of construction going on in the rear of the hotel.    Because of the construction, we ended up staying next door at the Hampton Suites and stopped at the Tesla supercharger on the way home.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel to book for my son's weekend soccer tournament.  I drive a Tesla so was looking for a hotel that provided EV charging.     I called a few hotels, and was told that this Holiday Inn was the only one in the area with EV charging.  I called this hotel's front desk to confirm this as well.   However, when I got to the hotel, there was no EV chargers visible, and the young lady behind the counter wasn't aware of one either.    Maybe because there was a ton of construction going on in the rear of the hotel.    Because of the construction, we ended up staying next door at the Hampton Suites and stopped at the Tesla supercharger on the way home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r505304295-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>505304295</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Great clean hotel.</t>
+  </si>
+  <si>
+    <t>Stayed here as passing through from Houston to Dallas, and it's located about 30 minutes north of Dallas. We booked a suite, which consisted of king Bed, sofa, chair, coffee facilities and a microwave. Room was clean and spacious.Pool is a great size, no towels at poolside though. Plenty of chairs to sit and clean.Breakfast is buffet style with both hot and cold items. Staff were friendly and this hotel is located near a great choice of restaurants, and 5 minutes from the outlets, although not many shops there.Would definitely recommend this hotel and would stay again if in the area.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r505298557-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
     <t>505298557</t>
   </si>
   <si>
-    <t>07/24/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">A fabulous stop over place! </t>
   </si>
   <si>
     <t xml:space="preserve">We stopped here on a road trip from Houston to Dallas!What a gem of a location.Warm welcoming staff, helpful and knowledgable.! Great pool area and wonderful pool.Room was very spacious, cool, modern and had every thing we could need including a fridge and Tea and coffee! The shower was amazing hot, clean and lovely.Free breakfast was also good compared to other hotels we have stayed in.Well done to all the staff at this location, I would highly recommend and certainly stay here again if ever In the area. Try chilli's restaurant across the street a fab meal ! </t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r498642630-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -381,6 +510,51 @@
     <t>I checked into this hotel on  June 27th . I had to drive around your parking lot for 20 minutes trying to find a place to park. I needed a handicap spot but they have construction equipment in the way so I had to park in the street. My room was nice and clean but there was no toilet paper holder. Had to search for the hair dryer because it was hidden in a black bag. The only saving grace was the very friendly and apologetic front desk clerk Buddy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r473953394-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>473953394</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly renovated </t>
+  </si>
+  <si>
+    <t>The hotel is currently being remodeled. We were given a room on the third floor that was just finished, and it was very nice. There is now a large fridge, a Keurig, and the bathroom was all brand new. The room faced the highway, but it was still quiet at night. Breakfast is the typical Holiday Inn Express breakfast, but I did notice the hostess wasn't very prompt about cleaning tables or emptying the trash. Still, I enjoyed my stay, and I would gladly return.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is currently being remodeled. We were given a room on the third floor that was just finished, and it was very nice. There is now a large fridge, a Keurig, and the bathroom was all brand new. The room faced the highway, but it was still quiet at night. Breakfast is the typical Holiday Inn Express breakfast, but I did notice the hostess wasn't very prompt about cleaning tables or emptying the trash. Still, I enjoyed my stay, and I would gladly return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r464075222-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>464075222</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>One Nite layover</t>
+  </si>
+  <si>
+    <t>My wife and I had an extra nite in Texas after staying at the Holiday Inn Vacation Resort in Galveston. We desided to visit Conroe and see the lake properties their, (We now own) The space here was immaculate. Service was excellent. We choose to have breakfast included with our price and did not regret it. The new Johnny's Italian restaurant on the property was clutch for us in the morning as we did not have to spend time driving around in traffic looking for a meal. The pool area is nice.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r453201817-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -439,6 +613,39 @@
   </si>
   <si>
     <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r446898538-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>446898538</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Convenient, affordable and classy</t>
+  </si>
+  <si>
+    <t>Stayed with family for a wedding.  We stayed for 2 nights.  Great breakfast, great helpful staff, clean rooms, quiet, 24/7 coffee, no issues whatsoever. Very convenient location, close to many shopping areas and restaurants. Thanks for a great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r429066762-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>429066762</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel - -staff was amazing</t>
+  </si>
+  <si>
+    <t>Stayed there for 6 days.  Really enjoyed the pool and the breakfast area.  My children really enjoyed the cookies and milk in the evening.  A nice little snack for them after a day at the pool.  The late night person at the desk, he went by Buddy , He is direct and to the point, and did not play too much, and I like that.  He was very helpful and kind to my children, getting them milk in the middle of the night.  Great Team Member !F G Huffman</t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r411623784-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
@@ -511,6 +718,49 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r367450482-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>367450482</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Friendly and Comfortable</t>
+  </si>
+  <si>
+    <t>We hosted a bachelorette party here about a month ago and had a ton of fun in our room (obviously not too much) lol the front desk staff was friendly and accommodating and I have no complaints about the comfort or cleanliness of our room!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r360185324-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>360185324</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Where to Stay in Conroe, Texas</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.
+In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal... you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!
+The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then...Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal... you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then the Holiday Inn Express is a good choice because it is just a few minutes away from the action. And, if you need to take care of business during your stay, the hotel provides free high-speed, wired and WIFI Internet, a meeting room and a 24-hour Business Center which provides copy and print services. The staff was friendly, inviting and helpful.  I was always greeted with a smile and a cheerful hello - just as you would expect here in the Lone Star State. Plus, you get that consistent Holiday Inn comfort found across the country.  It's a a great place to bring the family as it offers all the amenities of a resort without breaking the bank. Whether it be for business or pleasure, the Holiday Inn Express in Conroe is definitely a great choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.
+In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal... you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!
+The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then...Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal... you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then the Holiday Inn Express is a good choice because it is just a few minutes away from the action. And, if you need to take care of business during your stay, the hotel provides free high-speed, wired and WIFI Internet, a meeting room and a 24-hour Business Center which provides copy and print services. The staff was friendly, inviting and helpful.  I was always greeted with a smile and a cheerful hello - just as you would expect here in the Lone Star State. Plus, you get that consistent Holiday Inn comfort found across the country.  It's a a great place to bring the family as it offers all the amenities of a resort without breaking the bank. Whether it be for business or pleasure, the Holiday Inn Express in Conroe is definitely a great choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r358252848-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -526,9 +776,6 @@
     <t>If you need a place right of the interstate with local eateries and a good price, then this place is for you.  It's not a snazzy family destination by any means but the staff is really nice.  It is a little dated in the rooms but its location is worth it if you need a quick overnight.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded April 10, 2016</t>
   </si>
   <si>
@@ -583,6 +830,54 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r328253558-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>328253558</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Good location, great staff, overdue for an update.</t>
+  </si>
+  <si>
+    <t>The title of my review says it all. The hotel staff did advise there is going to be a remodel of this property. For the price of the room I will wait until the updates are complete. I will say the bedding, mattress &amp; pillows are top notchMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded December 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2015</t>
+  </si>
+  <si>
+    <t>The title of my review says it all. The hotel staff did advise there is going to be a remodel of this property. For the price of the room I will wait until the updates are complete. I will say the bedding, mattress &amp; pillows are top notchMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r326281433-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>326281433</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>The only surprises were good surprises</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel two times recently and each time it was dependable and better than our expectations.  First it is easy to get to from Highway 45 and it has better rates than neighboring properties.  The check in process was efficient and pleasant. The freshly baked cookies were a pleasant surprise. Our room looked out the back of the property with a view of pine and deciduous-trees. Heard no road noise.  It was a large, clean and comfortable king-room.The pillows were labeled so we could select the ones that would ensure a good sleep.   We forgot a phone charger and the desk lent us one. The breakfast selection is suitable for all diets - low carb, heart healthy, gluten free, etc A good value!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel two times recently and each time it was dependable and better than our expectations.  First it is easy to get to from Highway 45 and it has better rates than neighboring properties.  The check in process was efficient and pleasant. The freshly baked cookies were a pleasant surprise. Our room looked out the back of the property with a view of pine and deciduous-trees. Heard no road noise.  It was a large, clean and comfortable king-room.The pillows were labeled so we could select the ones that would ensure a good sleep.   We forgot a phone charger and the desk lent us one. The breakfast selection is suitable for all diets - low carb, heart healthy, gluten free, etc A good value!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r318799854-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -661,6 +956,64 @@
     <t>We stayed at this holiday in causes we used our reward points I was presently surprised to be up graded to a suite. It was nice. Not outstanding like a 5 star hotel but for holiday inn express it was great.  Bed comfortable room clean and fresh. There was a bit of mold on the tub caulk but with all the humid in this area of country your going to have that at your home. Pool was nice but Door broken to come back in and had to walk through the dining areas but at 9 pm no one was in there Breakfast buffet is standard fair. For free what do you want.We enjoyed our stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r308686590-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>308686590</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Funky</t>
+  </si>
+  <si>
+    <t>This visit didn't warrant a wordy review; sharing my list.Pros: Pool is beautiful!Close to our destinationCheapCons:Super dusty in our roomLumpy bedLumpy pillowsBroken ice machine on our floorNot one, two broken passages to the pool area In the exercise room two of three machines were brokenWe requested a quiet room and were placed under a noisy person/ thin ceilings- why not put us on the top floor?Stains all over carpets in common areasDustyFlimsy swimming towelsUnfortunately, our excursion to the pool was marred by the two broken passages to the pool area, and it was most awkward having to go through family breakfast area interrupting a party in our swimwear, plus there was an older gentleman smoking a cigar with his feet in the pool, as his grandson swam (yuck).I sneezed the entire time in the room. Lots was run down or broken (see list).Broken ice machine on our floor meant a trek each time (we were equidistant to stairs and elevator).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>This visit didn't warrant a wordy review; sharing my list.Pros: Pool is beautiful!Close to our destinationCheapCons:Super dusty in our roomLumpy bedLumpy pillowsBroken ice machine on our floorNot one, two broken passages to the pool area In the exercise room two of three machines were brokenWe requested a quiet room and were placed under a noisy person/ thin ceilings- why not put us on the top floor?Stains all over carpets in common areasDustyFlimsy swimming towelsUnfortunately, our excursion to the pool was marred by the two broken passages to the pool area, and it was most awkward having to go through family breakfast area interrupting a party in our swimwear, plus there was an older gentleman smoking a cigar with his feet in the pool, as his grandson swam (yuck).I sneezed the entire time in the room. Lots was run down or broken (see list).Broken ice machine on our floor meant a trek each time (we were equidistant to stairs and elevator).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r295753226-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>295753226</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Conroe: Certified Where to Stay</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.
+In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal… you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!
+The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then...Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal… you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then the Holiday Inn Express is a good choice because it is just a few minutes away from the action. And, if you need to take care of business during your stay, the hotel provides free high-speed, wired and WIFI Internet, a meeting room and a 24-hour Business Center which provides copy and print services. The staff was friendly, inviting and helpful.  I was always greeted with a smile and a cheerful hello – just as you would expect here in the Lone Star State. Plus, you get that consistent Holiday Inn comfort found across the country.  It’s a a great place to bring the family as it offers all the amenities of a resort without breaking the bank. Whether it be for business or pleasure, the Holiday Inn Express in Conroe is definitely a great choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.
+In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal… you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!
+The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then...Holiday Inn Express in Conroe sits right off I-45 and Hwy 336 in a central location that is conveniently accessible to all areas of Conroe. With restaurants, grocery stores, shopping and entertainment  venues all within a couple of blocks, the Holiday Inn Express provides everything you might need at your fingertips.  The Holiday Inn Express in Conroe is a very quiet hotel with all the amenities. The rooms are spacious and comfortable. We had the full set-up, with a desk, flat-screen, microwave and mini-fridge. The mini-fridge came in handy as there is a Signature Kroger supermarket within easy walking distance. The hotel is just down the road from the Woodlands and nearby malls include the Portofina Shopping Center and the Conroe Outlet Center.In the morning, they offer a wonderful breakfast with everything you could want: sausage, eggs, cinnamon rolls, bacon cereal… you get the point, ha! They even have a pancake machine! And, of course, a variety of fruit juices and piping hot coffee, freshly brewed. And all of it absolutely free!The Holiday Inn Express is the perfect place to relax during your visit to Conroe. Each day, I would spend the afternoon taking advantage of the large swimming pool. As you can see in the photography, the pool has a beautiful back drop of forest and even a waterfall! If your vacation plans include taking in some of the many activities available at nearby Lake Conroe, then the Holiday Inn Express is a good choice because it is just a few minutes away from the action. And, if you need to take care of business during your stay, the hotel provides free high-speed, wired and WIFI Internet, a meeting room and a 24-hour Business Center which provides copy and print services. The staff was friendly, inviting and helpful.  I was always greeted with a smile and a cheerful hello – just as you would expect here in the Lone Star State. Plus, you get that consistent Holiday Inn comfort found across the country.  It’s a a great place to bring the family as it offers all the amenities of a resort without breaking the bank. Whether it be for business or pleasure, the Holiday Inn Express in Conroe is definitely a great choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r281290596-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -679,9 +1032,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Maria A, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded June 23, 2015</t>
   </si>
   <si>
@@ -745,6 +1095,54 @@
     <t>Everything about this hotel room is just average.  I don't know how old it is or when it was last renovated, but it is beginning to show wear and tear.  It appears that parts of the carpet, (where furniture must be moved) haven't been vacuumed in years.  There is a layer of dust.  The bathroom does not have a vent/fan.  Therefore, towels can not dry out unless we bring them into the room and drape over chairs.  The bathroom floor is gross.  Again, I don't think the staff has the time or tools to really clean the floor.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r254380987-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>254380987</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Terrible bed</t>
+  </si>
+  <si>
+    <t>In nearly all respects, this hotel met my expectations.  The notable exception was the poorly fitted and poor quality of the bed pad.  It slipped and bunched and completely disrupted my sleep for two of my three nights.  Upon checking out I was offered a $20.00 discount and given a few extra points on my Holiday Inn account.  I will not stay at this hotel again, nor can I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Maria A, Manager at Holiday Inn Express Conroe, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>In nearly all respects, this hotel met my expectations.  The notable exception was the poorly fitted and poor quality of the bed pad.  It slipped and bunched and completely disrupted my sleep for two of my three nights.  Upon checking out I was offered a $20.00 discount and given a few extra points on my Holiday Inn account.  I will not stay at this hotel again, nor can I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r245641736-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>245641736</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveling to Galveston </t>
+  </si>
+  <si>
+    <t>I stayed at this hotel about a week ago. We always stay here and it is generally great from check in to check out. However, the check in this time was not great. I had to wait 5 mins for employee to come out of room then when she finally came out she looked like she had just been sleeping. She did not tell us about breakfast, where the elevator or stairs were located, or about any other amenities. Management, we felt like she did not enjoy her job. Everything else was great. Room was nice and clean, breakfast was great, and check out staff was very nice. Thank you for having the delicious cookies in the lobby! This hotel always has something fun going on around Christmas time. Last year or year before was door decorating and this year there was a gingerbread house competition. We will definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel about a week ago. We always stay here and it is generally great from check in to check out. However, the check in this time was not great. I had to wait 5 mins for employee to come out of room then when she finally came out she looked like she had just been sleeping. She did not tell us about breakfast, where the elevator or stairs were located, or about any other amenities. Management, we felt like she did not enjoy her job. Everything else was great. Room was nice and clean, breakfast was great, and check out staff was very nice. Thank you for having the delicious cookies in the lobby! This hotel always has something fun going on around Christmas time. Last year or year before was door decorating and this year there was a gingerbread house competition. We will definitely stay here again.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r245402433-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -805,6 +1203,45 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r222034202-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>222034202</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Just Terrific!</t>
+  </si>
+  <si>
+    <t>We arrived in Conroe around midnight after a nightmarish trip from Dallas (traffic, rain, more traffic).  It was a spur of the moment trip, so I called the hotel from the road.  The gentleman at the desk said he only had one room left, so I grabbed it.  When we arrived, he couldn't have been kinder or more welcoming.  I guess he could tell we were really worn out and on edge, because he was very solicitous.  He gave us water and snacks since we had missed dinner and told us to let him know if there was anything else we needed.  And I know he meant it.  We felt cared for, which is something lacking in so many business transactions these days.Oh, and the hotel was very clean - bed was comfortable - and check-out quick and easy. Even if it had not been excellent, I still would be posting a good review because of the gentleman at the desk that night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We arrived in Conroe around midnight after a nightmarish trip from Dallas (traffic, rain, more traffic).  It was a spur of the moment trip, so I called the hotel from the road.  The gentleman at the desk said he only had one room left, so I grabbed it.  When we arrived, he couldn't have been kinder or more welcoming.  I guess he could tell we were really worn out and on edge, because he was very solicitous.  He gave us water and snacks since we had missed dinner and told us to let him know if there was anything else we needed.  And I know he meant it.  We felt cared for, which is something lacking in so many business transactions these days.Oh, and the hotel was very clean - bed was comfortable - and check-out quick and easy. Even if it had not been excellent, I still would be posting a good review because of the gentleman at the desk that night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r216893012-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>216893012</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting my son. Hotel was clean, quiet, and spacious. Free breakfast, beautiful pool. Room was very, very comfortable with premium touches such as wonderful bed and sheets, LOTS of towels. Very happy and had a great rate!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r215078943-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -868,6 +1305,45 @@
     <t>Lynn and I spent 4 nights recently at the Holiday Inn Express in Conroe.  We were in Houston for a wedding.  This hotel is immaculate.  Upon entering the floors gleamed.  The carpets on the lodging floors were sparkling clean like new.  The guest rooms are large...with big comfy king size beds.  Bathrooms are nice too with big shower heads.  Wifi was a little iffy...worked sometimes. Sometimes there was no service.  Breakfast was adequate...normal continental style, but with sausage, bacon and scrambled eggs. We didn't use the pool, but it was really beautiful. This is quite a comfortable place to hang your hat for a few days while in the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r197035763-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>197035763</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms. hotel is in great location with a kroger in walking distance. i've stayed here 3 times and each time has been great. i would recommend this hotel to anyone in the Houston area.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r190740649-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>190740649</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This was a decent and clean place to stay overnight in Conroe. Located right off of the Interstate and close to restaurants. Wife and I stayed one night due to a funeral we were attending the next morning.  A little issue with the check-in as the computers went down/internet issue and we had to wait for a few minutes for someone to get them turned back on.  Not bad.  Received welcome bag for being Platinum level something or the other and room card.  Entered room and felt a bit warn. Noticed window unit and also an older looking thermostat on the wall. Had to go to visitation so turned both on cold and lowered temp.  upon return around 10pm it was still about same temp so called desk and they said the wall thermostat operated it.  Set it even lower but nothing. Too tired to change rooms so went to sleep. Luckily it was cool outside that night but still humid in room.  Quiet, slept pretty good.  Newspaper left at door next morning.  Breakfast buffet was ample and plenty of it.  Bacon, Biscuits, Gravy, yogurt, cereal, juice, coffee.  The eggs were scrambled and ok, but as others have said appears to be the powdered kind.  Since attending the funeral asked if late checkout was available and they gave me 2 additional hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This was a decent and clean place to stay overnight in Conroe. Located right off of the Interstate and close to restaurants. Wife and I stayed one night due to a funeral we were attending the next morning.  A little issue with the check-in as the computers went down/internet issue and we had to wait for a few minutes for someone to get them turned back on.  Not bad.  Received welcome bag for being Platinum level something or the other and room card.  Entered room and felt a bit warn. Noticed window unit and also an older looking thermostat on the wall. Had to go to visitation so turned both on cold and lowered temp.  upon return around 10pm it was still about same temp so called desk and they said the wall thermostat operated it.  Set it even lower but nothing. Too tired to change rooms so went to sleep. Luckily it was cool outside that night but still humid in room.  Quiet, slept pretty good.  Newspaper left at door next morning.  Breakfast buffet was ample and plenty of it.  Bacon, Biscuits, Gravy, yogurt, cereal, juice, coffee.  The eggs were scrambled and ok, but as others have said appears to be the powdered kind.  Since attending the funeral asked if late checkout was available and they gave me 2 additional hours.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r189278692-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -883,9 +1359,6 @@
     <t>Recommended by a friend and as I routinely stay at Holiday Inn when traveling as a Priority Member was expecting a restful stay.  As my wife has mobility issues when I checked in, I requested a room near the elevator.  The desk clerk did not even acknowledge that request and we ended up at the end of the hall.  I knew we were in trouble as the clock was blinking the wrong time and the room was heated to 77 degrees.  My wife was so tired she fell into bed to try to get some sleep.  I immediately turned the A/C on and took my shower.  It wasn't until I got into bed that I realized the bed and every thing in the room was hot and the A/C had no chance to cool the room.  Since I thought my wife was asleep, it was too late to try to change rooms.  We both had a miserable night.  The morning clerk apologized and gave us "points", but the damage was done.  WiFi was spotty; breakfast was okay. The clock ended up unplugged and stashed on the desk.MoreShow less</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded January 17, 2014</t>
   </si>
   <si>
@@ -928,6 +1401,45 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r175819482-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>175819482</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>just driving through</t>
+  </si>
+  <si>
+    <t>Traffic building and rolling towards Houston, I decided to call it a night and hit the Holiay Inn Express in Conroe Texas.  Resturants plentiful, a grocery store right there.  Life was good.   Front Staff was friendly.  The room was spacious and clean.......and it was quiet.  ahhhhhhhh.  The WiFi, my pet peeve, was up and down, but....stuff happens.  I survived.As another reviewer stated, this is a great place to stop before going in to the "belly of the beast" Houston.  you are far enough out to stay out of traffic, but close enough to get there in 45 minutes.  This place is worth the stay......quite a few hotels on the way, but you start getting in to seedy places if you take that gamble.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Traffic building and rolling towards Houston, I decided to call it a night and hit the Holiay Inn Express in Conroe Texas.  Resturants plentiful, a grocery store right there.  Life was good.   Front Staff was friendly.  The room was spacious and clean.......and it was quiet.  ahhhhhhhh.  The WiFi, my pet peeve, was up and down, but....stuff happens.  I survived.As another reviewer stated, this is a great place to stop before going in to the "belly of the beast" Houston.  you are far enough out to stay out of traffic, but close enough to get there in 45 minutes.  This place is worth the stay......quite a few hotels on the way, but you start getting in to seedy places if you take that gamble.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r174813523-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>174813523</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>Really nice hotel</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express in Conroe is a really nice place to be.Really good service, a nice, quiet and well cleaned room with good beds plus the usual amenities.Grounds and hotel well kept and inviting.Staff really really nice and ready to help out and the breakfast is great - especially the cinnamon bun - it's to die for and I really dont care if they are reheated, they are simply delicious.The hotel is close to shops and restaurants ( walking distance ) and not that far from The Woodlands Mall and Cynthia Woods Mitchell PavillionReally nice and recommendable.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r166883488-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1506,39 @@
     <t>This hotel is typical of the Holiday Inn Express chain. The room was clean and fairly comfortable. It was a bit worn in places. The one elevator is perhaps the slowest I've ever been on. It's way quicker to walk to the end of the hall and take the stairs. The breakfast was pretty good and the staff were friendly. The pool was nice but the workout room was inadequate. It only had two treadmills and one bike, that's all. The cookies are nice in the evening if you're there at the right time. It was an okay stay but I prefer the Hampton Inn next door.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r160812000-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>160812000</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Good Location, Ample Parking</t>
+  </si>
+  <si>
+    <t>Kroger next store for anything quick.  3 Chain restaurants 50 yards away.  Very nice lounge and breakfast area.  Staff is friendly. Can't go perfect as they only have one wash and dryer machine.  By chance the hotel was out of the small laundry detergents boxes for sale.  Went to Kroger next door.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r158696274-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>158696274</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>April Trip</t>
+  </si>
+  <si>
+    <t>We arrived at the Hotel this afternoon and the front desk staff were very pleasant.  We came in early but they accomidated us and had rooms available. The ladies hand both of us little gift baags with a snack and water.  I may seem a small gesture but i travel a lot and appreciate the token of thanks. I asked about any local seafood resturants and they had the answers and directions.  When i opened the door to the room I was amazed-wow what an awesome suite. The two rooms were spacious and both had large flat screen TVs.  A small kitchenette with sink, microwave and fridge.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r157686816-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1009,9 +1554,6 @@
     <t>We were passing through the Houston area and needed a hotel for the night.  Quite honestly I didn't care where we stayed so long as it was clean, convenient and reasonable priced.  I was pleasantly surprised what we found.  The staff were very welcoming, friendly and pleasant.  The hotel seemed fairly new and well maintained.  Even though we were on there for about 8 hours - it was a very enjoyable stay!</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r147389049-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1608,42 @@
     <t>I stayed overnight with my two children.  The staff was very nice and accommodating.  Room was clean, smelled clean, and very comfortable.  Breakfast was great and the area was neat and clean.  Used the laundry facilities and the area was clean as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r144587371-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>144587371</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Nice Stay in Texas</t>
+  </si>
+  <si>
+    <t>I stayed one night at the Holiday Inn Express in Conroe, TX.  I didn't spend much time at the hotel and checked out at 4:15 am, so I can't comment on the breakfast that is provided.  Room was nice.  Can't complain.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r143707460-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>143707460</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Poor Internet service</t>
+  </si>
+  <si>
+    <t>The internet services was the worst I have ever encountered. At first, it was slow and then I couldn't even connect with via cable. I spoke to their service technician who was unable to help. He did have them reset it but it did not help. Basically, he implied that they do not have service that is capable of handling that many guests. I also had trouble, at first, with my air conditioner not cooling the room. When I reported this to the desk staff she told me she would call the technician but he might not come out. I asked her to move me and she told me they were full. She was hateful in her tone and I hung up on her. She called me back and I didn't answer so she slipped a note under my door stating that she was in no way rude and that I was the rude one. The notes said that they have a video camera with a recorder to prove it. I thought this was very intrusive for her to put the note under my door.MoreShow less</t>
+  </si>
+  <si>
+    <t>The internet services was the worst I have ever encountered. At first, it was slow and then I couldn't even connect with via cable. I spoke to their service technician who was unable to help. He did have them reset it but it did not help. Basically, he implied that they do not have service that is capable of handling that many guests. I also had trouble, at first, with my air conditioner not cooling the room. When I reported this to the desk staff she told me she would call the technician but he might not come out. I asked her to move me and she told me they were full. She was hateful in her tone and I hung up on her. She called me back and I didn't answer so she slipped a note under my door stating that she was in no way rude and that I was the rude one. The notes said that they have a video camera with a recorder to prove it. I thought this was very intrusive for her to put the note under my door.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r142233967-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1081,9 +1659,6 @@
     <t>The hotel staff was great during check-in.  They gave us goodie bags with water, chips and cookies. The room was clean.  The breakfast was good.  They had biscuits with the GOOD gravy.  They had a great shampoo.  It smelled kind of cinamonny.  I have absolutely no complaints.  The stay was perfect!</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r139911258-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1701,51 @@
     <t>I stayed at this hotel because we were having a business training  in the hotel.  The room for the training was small but large enough for the 20 people attending. The bed was very comfortable. Pool pleasant and clean.  Breakfast was satisfactory.  Eggs, bacon, biscuits &amp; gravy, cereal, pancakes, etc.Staff was friendly &amp; helpful.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r133333393-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>133333393</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>First stay with Holiday Inn</t>
+  </si>
+  <si>
+    <t>Was referred to stay in Holiday Inn by a colleague due to the convenience of this location to the office during my oversea trip. Was not given further details of how it was like to stay here.When i got there, the registration was simple and I got to room right away. Is a simple 3 level hotel with a pleasant small swimming pool overlooking the woods behind. The staff strength was kept lean I suppose but was great with their service. Breakfast was served decently, not much of a variety but was enough to fulfill your morning stomach with eggs, sausages, hams, ciminon cakes, pancakes and fruits. The most satisfactory thing that I like was the bed. It was soft and comfortable. The room was spacious comes with a mini fridge, microwave. The only thing I feel should be included perhaps is a safe-box in the room. Right outside the hotel, there were restaurants like chillis and denny's. Very convenient if you dont drive as walking distance to Krogers supermarket and other shops so you wont be too far away from the hotel. Overall, I have good experience during the stay and will look forward to other Holiday Inn hotels elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Was referred to stay in Holiday Inn by a colleague due to the convenience of this location to the office during my oversea trip. Was not given further details of how it was like to stay here.When i got there, the registration was simple and I got to room right away. Is a simple 3 level hotel with a pleasant small swimming pool overlooking the woods behind. The staff strength was kept lean I suppose but was great with their service. Breakfast was served decently, not much of a variety but was enough to fulfill your morning stomach with eggs, sausages, hams, ciminon cakes, pancakes and fruits. The most satisfactory thing that I like was the bed. It was soft and comfortable. The room was spacious comes with a mini fridge, microwave. The only thing I feel should be included perhaps is a safe-box in the room. Right outside the hotel, there were restaurants like chillis and denny's. Very convenient if you dont drive as walking distance to Krogers supermarket and other shops so you wont be too far away from the hotel. Overall, I have good experience during the stay and will look forward to other Holiday Inn hotels elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r132210895-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>132210895</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Hard to find</t>
+  </si>
+  <si>
+    <t>The location of the hotel is right off the freeway but we missed the driveway to the hotel and had to go around the town. Staff was friendly room was clean but bathroom had some pink smeared on the wall the hotel looked older then in the pictures. First time I stayed at holiday inn and prob the last it was pricey and not what I expected I stayed at resorts for the same price!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Conroe, responded to this reviewResponded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2012</t>
+  </si>
+  <si>
+    <t>The location of the hotel is right off the freeway but we missed the driveway to the hotel and had to go around the town. Staff was friendly room was clean but bathroom had some pink smeared on the wall the hotel looked older then in the pictures. First time I stayed at holiday inn and prob the last it was pricey and not what I expected I stayed at resorts for the same price!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r132015515-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1141,9 +1761,6 @@
     <t>I was in the area on business, and was very pleased with this hotel.  The room was clean and in very good condition.  The staff was friendly and professional.  There were several restaurants literally across the parking lot, as well as a shopping center with a grocery store.  This hotel is definitely on my list of places to stay more than once!</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r131949609-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1794,57 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r128862105-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>128862105</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Beware of the "Cancellation Trap"</t>
+  </si>
+  <si>
+    <t>My rating is based on my experience with this hotel after cancelling a reservation and doesn't reflect the quality of staff or facilities.  I booked two nights in March 2012 ten days prior to my stay, one hour and 20 minutes after booking I had to cancel.  My reservation was cancelled as easily as it was booked and I received a cancellation comfirmation.  At that point I thought it was taken care of until I received my Amex bill, I contacted the Priority Club and they informed me that this was a reduced rate and was non-refundable.  Several other contacts were made attempting to resolve this including contacting hotel management.  The hotel management refused to refund my money.
+Apparently when you agree to the terms you are also agreeing to a non-refundable rate, be aware of this with Holiday Inn Express.  The rates paid, reduced or not, were standard for this area and in my opinion a trap to get your money.  Most people will agree to the terms without reading them because in the end they just want a room not a contract.
+It's disingenous to accept a cancellation and not tell the customer during the cancellation process, oh by the way were still charging you.  What's the point of cancelling if your stuck paying.
+To top things off, I requested my Priority Club points since I paid for the room, of course they said no because I physically...My rating is based on my experience with this hotel after cancelling a reservation and doesn't reflect the quality of staff or facilities.  I booked two nights in March 2012 ten days prior to my stay, one hour and 20 minutes after booking I had to cancel.  My reservation was cancelled as easily as it was booked and I received a cancellation comfirmation.  At that point I thought it was taken care of until I received my Amex bill, I contacted the Priority Club and they informed me that this was a reduced rate and was non-refundable.  Several other contacts were made attempting to resolve this including contacting hotel management.  The hotel management refused to refund my money.Apparently when you agree to the terms you are also agreeing to a non-refundable rate, be aware of this with Holiday Inn Express.  The rates paid, reduced or not, were standard for this area and in my opinion a trap to get your money.  Most people will agree to the terms without reading them because in the end they just want a room not a contract.It's disingenous to accept a cancellation and not tell the customer during the cancellation process, oh by the way were still charging you.  What's the point of cancelling if your stuck paying.To top things off, I requested my Priority Club points since I paid for the room, of course they said no because I physically didn't stay there.  What a frickin' joke.  Holiday Inn Express will no longer get my personal business nor my company sponsored business.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>riasntx, General Manager at Holiday Inn Express Conroe, responded to this reviewResponded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2012</t>
+  </si>
+  <si>
+    <t>My rating is based on my experience with this hotel after cancelling a reservation and doesn't reflect the quality of staff or facilities.  I booked two nights in March 2012 ten days prior to my stay, one hour and 20 minutes after booking I had to cancel.  My reservation was cancelled as easily as it was booked and I received a cancellation comfirmation.  At that point I thought it was taken care of until I received my Amex bill, I contacted the Priority Club and they informed me that this was a reduced rate and was non-refundable.  Several other contacts were made attempting to resolve this including contacting hotel management.  The hotel management refused to refund my money.
+Apparently when you agree to the terms you are also agreeing to a non-refundable rate, be aware of this with Holiday Inn Express.  The rates paid, reduced or not, were standard for this area and in my opinion a trap to get your money.  Most people will agree to the terms without reading them because in the end they just want a room not a contract.
+It's disingenous to accept a cancellation and not tell the customer during the cancellation process, oh by the way were still charging you.  What's the point of cancelling if your stuck paying.
+To top things off, I requested my Priority Club points since I paid for the room, of course they said no because I physically...My rating is based on my experience with this hotel after cancelling a reservation and doesn't reflect the quality of staff or facilities.  I booked two nights in March 2012 ten days prior to my stay, one hour and 20 minutes after booking I had to cancel.  My reservation was cancelled as easily as it was booked and I received a cancellation comfirmation.  At that point I thought it was taken care of until I received my Amex bill, I contacted the Priority Club and they informed me that this was a reduced rate and was non-refundable.  Several other contacts were made attempting to resolve this including contacting hotel management.  The hotel management refused to refund my money.Apparently when you agree to the terms you are also agreeing to a non-refundable rate, be aware of this with Holiday Inn Express.  The rates paid, reduced or not, were standard for this area and in my opinion a trap to get your money.  Most people will agree to the terms without reading them because in the end they just want a room not a contract.It's disingenous to accept a cancellation and not tell the customer during the cancellation process, oh by the way were still charging you.  What's the point of cancelling if your stuck paying.To top things off, I requested my Priority Club points since I paid for the room, of course they said no because I physically didn't stay there.  What a frickin' joke.  Holiday Inn Express will no longer get my personal business nor my company sponsored business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r124093641-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>124093641</t>
+  </si>
+  <si>
+    <t>02/03/2012</t>
+  </si>
+  <si>
+    <t>Consistently good</t>
+  </si>
+  <si>
+    <t>Very nice, holiday inn's are consistently clean and classy, I can always depend on HI to meet and exceed my expectations and Conroe location was indeed a quality hotel.  They welcomed us with a goody bag, room was very clean and facilities nicel.  Many extras you don't get in a more expensive hotel, including a microwave, refrigerator and I love the throw on the bed for wrapping up in just like at home.  Breakfast is always good, I look forward to the cheese omelet, this is much more than a continental breakfast, again no free breakfast at a more expensive hotel.  Good price, good accommodations and good food.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r121928072-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1900,48 @@
   </si>
   <si>
     <t>We stayed a Sunday night in Conroe to attend a concert at the Cynthia Woods Mitchell Pavillion.  Very convenient location for our travels.  Beware that there is no entrance off the service road where the sign is.  The new, unmarked road is before the hotel, just past Kroger, or better yet, cut through the Kroger parking lot.  If you miss it, you have to do the next exit loop back around; yes we did it.  Also, we were awakened at 7AM (morning after concert) by what sounded like someone doing aerobics in the room above us.  We were in 100 and I called 200 and asked them to be a little less heavy footed.  They said OK.  I don't know if they were really doing some indoor track and field exercise or the ceilings were just thin.  We were not acknowleded as Priority Club members at checkin, and no goodie bag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r116583045-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>116583045</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Very convenient once you get through the construction...</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express is a very decent property, lot of little extras at the breakfast nook, but the cool thing about this hotel is the location...just steps from the bar entrance of Chili's, open til midnight, and you could crawl to Texas Roadhouse, Kroger's Supermarket is right across the street!  The exit from 45 north was closed and we got lost getting there, but once we got our bearings we were quite satisfied with the choice.  Taxi service was also great for a town this size.  We came for a concert at the Crighton and the staff was helpful in not only helping us get there but meeting others who were there for the show.  Will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express is a very decent property, lot of little extras at the breakfast nook, but the cool thing about this hotel is the location...just steps from the bar entrance of Chili's, open til midnight, and you could crawl to Texas Roadhouse, Kroger's Supermarket is right across the street!  The exit from 45 north was closed and we got lost getting there, but once we got our bearings we were quite satisfied with the choice.  Taxi service was also great for a town this size.  We came for a concert at the Crighton and the staff was helpful in not only helping us get there but meeting others who were there for the show.  Will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r116129309-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>116129309</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Just stayed here this past weekend for 2 nights. Hotel is great for the price. Check in was fast  room was ready early for us at 2pm. Our room was a regular size 2 queen beds nothing big, Came with a micro and fridge also. The room was clean no problems there. They offer pool towels that way you dont have to take your own towels. Breakfast was good they had a good variety of items eggs, sausage, breads, cereals.... The pancake machine was broken that would of been great for the kids. They even had cookies and milk in the evening hours, a little extra that my kids enjoyed. Great location right off 45, you have a Kroger to the left across the street, Texas Roadhouse, Dennys right in front, and a discount tire. Great stay friendly staff, would stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Just stayed here this past weekend for 2 nights. Hotel is great for the price. Check in was fast  room was ready early for us at 2pm. Our room was a regular size 2 queen beds nothing big, Came with a micro and fridge also. The room was clean no problems there. They offer pool towels that way you dont have to take your own towels. Breakfast was good they had a good variety of items eggs, sausage, breads, cereals.... The pancake machine was broken that would of been great for the kids. They even had cookies and milk in the evening hours, a little extra that my kids enjoyed. Great location right off 45, you have a Kroger to the left across the street, Texas Roadhouse, Dennys right in front, and a discount tire. Great stay friendly staff, would stay here again for sure.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r109742136-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
@@ -1295,6 +2005,42 @@
     <t>My husband and I stayed at this hotel on May 28 and 29 with a large group attending a wedding.  The staff was very accommodating, and let those of us not at the rehearsal dinner, grill burgers out by the pool on Friday night.  I had read the hotel opened several years ago, so I was surprised when I saw how nicely it has been maintained.  The beds were comfortable and we had our choice of soft or firm pillows.  The room had a microwave and refrigerator.  The free breakfast was in a nice, large room with several hot items on the menu.   It is probably the nicest Holiday Inn Express I have stayed in.  It's not the Ritz, but was certainly an excellent quality hotel for the price and location.  There is a Chili's, Texas Roadhouse, Kroger, Denny's, Subway, and Pizza Hut a within walking distance. It was a sort drive to Heather's Glen, where the wedding was held.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r51222213-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>51222213</t>
+  </si>
+  <si>
+    <t>12/14/2009</t>
+  </si>
+  <si>
+    <t>EXCELLENT!</t>
+  </si>
+  <si>
+    <t>We stayed one night while visiting to run a 50K at Huntsville State Park.  The hotel is new, very clean, and has a terrific location for access to either Huntsville or the Woodlands.  There is a grocery within walking distance and there are a few decent restaurants nearby.  The staff is extremely friendly, courteous and accommodating.  The hallways were quiet, the beds were comfortable.  Everything in the room worked.  We had no complaints.  They have the basic Holiday Inn Select breakfast but we didn't have a chance to try it since we had to leave early in the AM for the race.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r27782846-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>27782846</t>
+  </si>
+  <si>
+    <t>04/10/2009</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable &amp; Quiet</t>
+  </si>
+  <si>
+    <t>The room was comfy and very clean, with several nice resturants with in walking distance,  Felt very safe in the area.  Staff was friendly.  Hot Breakfast Buffet had several choices and was good.  Reasonably priced and would stay again.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r26176684-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1308,9 +2054,6 @@
   </si>
   <si>
     <t>We are priority club members. We first arrived with a reservation for a regular room, and upon check-in we requested an upgrade to a suite. The front desk employees fulfilled our request immediately with no problems. The upgraded room is very clean and better than we expected. The property itself is very nice, clean, and tidy. The employees are very friendly and provide great service as well.</t>
-  </si>
-  <si>
-    <t>March 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r24039073-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
@@ -1360,6 +2103,48 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r17822904-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>17822904</t>
+  </si>
+  <si>
+    <t>07/12/2008</t>
+  </si>
+  <si>
+    <t>Great Stay!!!</t>
+  </si>
+  <si>
+    <t>I had to go to Houston with my family for an overnight stay and found the downtown hotels very very expensive ($250/night!!!).  I decided to find a hotel in the surrounding cities and found this one.  The price was awesome...$118.00/night (includes taxes) for my wife and two kids.  The hotel was very clean and the staff helpful/polite.  The beds were extremely comfortable. This hotel is about 40miles away from downtown Houston but I recommend it if your on a budget and can commute downtown on your own.  The only drawback is rush hour traffic to downtown Houston is very bad so beware!!!  We left for downtown before rush hour so it was not a big deal.  This hotel is located off I-45 and has many shopping/restaurants in the vicinity.  The hot breakfast fare was your typical items somewhat limited but I found it clean and fresh and the kids loved it.  They also have cookies/milk at 7pm in the lobby which my kids also enjoyed.  The pool was big and clean.  I recommend this hotel for families on a budget and business people.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I had to go to Houston with my family for an overnight stay and found the downtown hotels very very expensive ($250/night!!!).  I decided to find a hotel in the surrounding cities and found this one.  The price was awesome...$118.00/night (includes taxes) for my wife and two kids.  The hotel was very clean and the staff helpful/polite.  The beds were extremely comfortable. This hotel is about 40miles away from downtown Houston but I recommend it if your on a budget and can commute downtown on your own.  The only drawback is rush hour traffic to downtown Houston is very bad so beware!!!  We left for downtown before rush hour so it was not a big deal.  This hotel is located off I-45 and has many shopping/restaurants in the vicinity.  The hot breakfast fare was your typical items somewhat limited but I found it clean and fresh and the kids loved it.  They also have cookies/milk at 7pm in the lobby which my kids also enjoyed.  The pool was big and clean.  I recommend this hotel for families on a budget and business people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r15120538-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>15120538</t>
+  </si>
+  <si>
+    <t>04/18/2008</t>
+  </si>
+  <si>
+    <t>So surprised with this Holiday Inn</t>
+  </si>
+  <si>
+    <t>I had to travel to Conroe for business and this hotel was the closest to my final destination.  I'm never excited when I learn that I have to stay in a Holiday Inn....don't want to seem mean, but that is just how it is for me.  When I arrived I was welcomed by the nicest front desk person and she proceeded to tell me I had been upgraded to a suite.  She also told me of the cookies at night and hot breakfast program that they had.  Wow!  This suite was super and everything else about this stay was as well.Don't let the name fool you - this was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>I had to travel to Conroe for business and this hotel was the closest to my final destination.  I'm never excited when I learn that I have to stay in a Holiday Inn....don't want to seem mean, but that is just how it is for me.  When I arrived I was welcomed by the nicest front desk person and she proceeded to tell me I had been upgraded to a suite.  She also told me of the cookies at night and hot breakfast program that they had.  Wow!  This suite was super and everything else about this stay was as well.Don't let the name fool you - this was great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r10206411-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +2200,24 @@
   </si>
   <si>
     <t>My mom and I just got back from a mother-daughter shopping trip, and we spent the night at the Holiday Inn Express in Conroe. It's right off of I-45, but surprisingly quiet.   It's close to the outlet mall, and construction is underway for a new shopping center with a TJ Maxx, Kohl's and more just down the road!  There's a Texas Roadhouse (great place to eat, by the way) next door.We debated whether to stay at this location, or the Holiday Inn Express closer to the Woodlands Mall (since that was a shopping stop for us!), but we decided to stay in Conroe due to the heavy traffic on I-45 in the Woodlands area.  We're so glad we stayed here!  The staff at the front desk was very friendly.  Our rooms were very nice, and the prices are so reasonable!  The AARP rate is just $75.95 a night! The pool area is beautiful, and the room was very clean and nice. There was a mini refrigerator and microwave in our room, and continental breakfast was served in a lovely downstairs room. We felt safer with the interior hallways, and were appreciative of their "zero tolerance for inconsiderate behavior" policy, which is posted in the rooms.  What a great night's sleep we got in this lovely, quiet hotel.  We'll definitely return on our next shopping weekend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55667-d98555-r3629285-Holiday_Inn_Express_Conroe-Conroe_Texas.html</t>
+  </si>
+  <si>
+    <t>3629285</t>
+  </si>
+  <si>
+    <t>07/01/2005</t>
+  </si>
+  <si>
+    <t>A very pleasant hotel</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express in Conroe is one of the nicest Holiday Inn Express properties I have stayed in. The official grand opening took place the week before my visit. The front desk staff was efficient and friendly. My room faced the woods in back and was exceptionally comfortable, quiet, and well designed. The outdoor pool complete with small waterfall provided a great way to get some exercise. I would highly recommend this place. One note of warning: I met several elderly women guests who were about five feet tall who found the beds too high and hard to get in and out of. I, on the other hand, thought the pillow top king bed in my room was ideal.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express in Conroe is one of the nicest Holiday Inn Express properties I have stayed in. The official grand opening took place the week before my visit. The front desk staff was efficient and friendly. My room faced the woods in back and was exceptionally comfortable, quiet, and well designed. The outdoor pool complete with small waterfall provided a great way to get some exercise. I would highly recommend this place. One note of warning: I met several elderly women guests who were about five feet tall who found the beds too high and hard to get in and out of. I, on the other hand, thought the pillow top king bed in my room was ideal.More</t>
   </si>
 </sst>
 </file>
@@ -1951,12 +2754,8 @@
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1985,34 +2784,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2026,7 +2825,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -2042,58 +2841,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -2109,7 +2898,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2118,49 +2907,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2176,52 +2955,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="Y6" t="s">
         <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -2237,52 +3022,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="X7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Y7" t="s">
         <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2298,48 +3089,58 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Y8" t="s">
         <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2355,48 +3156,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>105</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
       <c r="O9" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -2412,7 +3223,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2421,25 +3232,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2494,13 +3305,13 @@
         <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2511,10 +3322,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2530,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2539,49 +3354,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -2597,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2606,45 +3415,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -2660,54 +3463,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" t="s">
-        <v>141</v>
-      </c>
       <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>142</v>
       </c>
-      <c r="L14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>144</v>
-      </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2723,7 +3520,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2732,49 +3529,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>152</v>
-      </c>
-      <c r="X15" t="s">
-        <v>153</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -2790,34 +3577,34 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
         <v>155</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>156</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>157</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>158</v>
       </c>
-      <c r="L16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>160</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2828,10 +3615,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2847,7 +3638,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2856,47 +3647,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2912,7 +3699,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2921,34 +3708,34 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2956,14 +3743,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>176</v>
-      </c>
-      <c r="X18" t="s">
-        <v>177</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -2979,54 +3762,48 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
         <v>179</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>180</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>181</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>182</v>
       </c>
-      <c r="L19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>184</v>
-      </c>
       <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -3042,58 +3819,58 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
         <v>185</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>186</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>187</v>
       </c>
-      <c r="K20" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>190</v>
-      </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -3109,56 +3886,54 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
         <v>194</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>195</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>196</v>
       </c>
-      <c r="K21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" t="s">
-        <v>198</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>199</v>
-      </c>
       <c r="O21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>200</v>
-      </c>
-      <c r="X21" t="s">
-        <v>201</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -3174,7 +3949,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3183,43 +3958,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>208</v>
-      </c>
-      <c r="X22" t="s">
-        <v>209</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -3235,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3244,49 +4019,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>218</v>
-      </c>
-      <c r="X23" t="s">
-        <v>219</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -3302,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3311,53 +4082,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>227</v>
-      </c>
-      <c r="X24" t="s">
-        <v>228</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
@@ -3373,7 +4136,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3382,47 +4145,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
@@ -3438,7 +4203,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3447,25 +4212,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3479,7 +4244,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
@@ -3495,7 +4260,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3504,49 +4269,45 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>152</v>
+      </c>
       <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>250</v>
-      </c>
-      <c r="X27" t="s">
-        <v>251</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
@@ -3562,7 +4323,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3571,33 +4332,31 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3609,7 +4368,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
@@ -3625,7 +4384,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3634,34 +4393,32 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3669,10 +4426,14 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X29" t="s">
+        <v>249</v>
+      </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -3688,7 +4449,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3697,53 +4458,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="X30" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
@@ -3759,7 +4516,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3768,25 +4525,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3794,15 +4551,11 @@
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3810,7 +4563,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -3826,7 +4579,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3835,53 +4588,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="X32" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
@@ -3897,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3906,38 +4655,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3948,7 +4691,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
@@ -3964,7 +4707,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3973,39 +4716,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
       <c r="Y34" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -4021,7 +4774,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4030,49 +4783,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
@@ -4088,58 +4839,52 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s">
         <v>307</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>308</v>
-      </c>
-      <c r="J36" t="s">
-        <v>309</v>
-      </c>
-      <c r="K36" t="s">
-        <v>310</v>
-      </c>
-      <c r="L36" t="s">
-        <v>311</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>312</v>
-      </c>
-      <c r="O36" t="s">
-        <v>68</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
-      <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="37">
@@ -4155,62 +4900,52 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
         <v>313</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
         <v>314</v>
       </c>
-      <c r="J37" t="s">
+      <c r="X37" t="s">
         <v>315</v>
       </c>
-      <c r="K37" t="s">
+      <c r="Y37" t="s">
         <v>316</v>
-      </c>
-      <c r="L37" t="s">
-        <v>317</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>318</v>
-      </c>
-      <c r="O37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
-      <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s">
-        <v>319</v>
-      </c>
-      <c r="X37" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="38">
@@ -4226,48 +4961,58 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>322</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>323</v>
-      </c>
-      <c r="J38" t="s">
-        <v>324</v>
-      </c>
-      <c r="K38" t="s">
-        <v>325</v>
-      </c>
-      <c r="L38" t="s">
-        <v>326</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>327</v>
-      </c>
       <c r="O38" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39">
@@ -4283,62 +5028,58 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
         <v>328</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>329</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>330</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
         <v>331</v>
       </c>
-      <c r="L39" t="s">
-        <v>332</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>333</v>
-      </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
+        <v>332</v>
+      </c>
+      <c r="X39" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y39" t="s">
         <v>334</v>
-      </c>
-      <c r="X39" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -4354,62 +5095,62 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
         <v>337</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>338</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>339</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
         <v>340</v>
       </c>
-      <c r="L40" t="s">
-        <v>341</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>342</v>
-      </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>341</v>
+      </c>
+      <c r="X40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y40" t="s">
         <v>343</v>
-      </c>
-      <c r="X40" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="41">
@@ -4425,58 +5166,56 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
         <v>346</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>347</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>348</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
         <v>349</v>
       </c>
-      <c r="L41" t="s">
-        <v>350</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>351</v>
-      </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>350</v>
+      </c>
+      <c r="X41" t="s">
+        <v>351</v>
+      </c>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
@@ -4492,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4501,47 +5240,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>358</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
         <v>1</v>
       </c>
-      <c r="N42" t="s">
-        <v>357</v>
-      </c>
-      <c r="O42" t="s">
-        <v>60</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="X42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43">
@@ -4557,7 +5298,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4566,49 +5307,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44">
@@ -4624,7 +5355,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4633,49 +5364,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J44" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
@@ -4691,7 +5412,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4700,45 +5421,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s"/>
       <c r="O45" t="s"/>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>380</v>
+      </c>
+      <c r="X45" t="s">
+        <v>381</v>
+      </c>
       <c r="Y45" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46">
@@ -4754,7 +5479,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4763,38 +5488,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4805,7 +5526,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47">
@@ -4821,7 +5542,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4830,38 +5551,34 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J47" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K47" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="O47" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4872,7 +5589,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
@@ -4888,7 +5605,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4897,41 +5614,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4939,7 +5652,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
@@ -4955,7 +5668,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4964,41 +5677,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="J49" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K49" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>400</v>
-      </c>
-      <c r="O49" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5006,7 +5715,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50">
@@ -5022,7 +5731,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5031,49 +5740,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="J50" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>413</v>
+      </c>
+      <c r="X50" t="s">
+        <v>414</v>
+      </c>
       <c r="Y50" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51">
@@ -5089,7 +5802,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5098,30 +5811,38 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="J51" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5132,7 +5853,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52">
@@ -5148,7 +5869,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5157,37 +5878,41 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="J52" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="K52" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5195,7 +5920,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53">
@@ -5211,7 +5936,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5220,25 +5945,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="J53" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K53" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L53" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5262,7 +5987,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
@@ -5278,7 +6003,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5287,49 +6012,53 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="J54" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="K54" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
         <v>3</v>
       </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>441</v>
+      </c>
+      <c r="X54" t="s">
+        <v>442</v>
+      </c>
       <c r="Y54" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
@@ -5345,7 +6074,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5354,25 +6083,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5396,7 +6125,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56">
@@ -5412,7 +6141,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5421,49 +6150,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="J56" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K56" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57">
@@ -5479,7 +6198,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5488,41 +6207,41 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5530,7 +6249,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58">
@@ -5546,7 +6265,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5555,35 +6274,41 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="J58" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K58" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L58" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>467</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5591,7 +6316,2576 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>458</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>469</v>
+      </c>
+      <c r="J59" t="s">
+        <v>470</v>
+      </c>
+      <c r="K59" t="s">
+        <v>471</v>
+      </c>
+      <c r="L59" t="s">
+        <v>472</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>473</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>475</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>476</v>
+      </c>
+      <c r="J60" t="s">
+        <v>477</v>
+      </c>
+      <c r="K60" t="s">
+        <v>478</v>
+      </c>
+      <c r="L60" t="s">
+        <v>479</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>480</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>482</v>
+      </c>
+      <c r="J61" t="s">
+        <v>483</v>
+      </c>
+      <c r="K61" t="s">
+        <v>484</v>
+      </c>
+      <c r="L61" t="s">
+        <v>485</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>486</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>487</v>
+      </c>
+      <c r="X61" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>490</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" t="s">
+        <v>492</v>
+      </c>
+      <c r="K62" t="s">
+        <v>493</v>
+      </c>
+      <c r="L62" t="s">
+        <v>494</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>495</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>497</v>
+      </c>
+      <c r="J63" t="s">
+        <v>498</v>
+      </c>
+      <c r="K63" t="s">
+        <v>499</v>
+      </c>
+      <c r="L63" t="s">
+        <v>500</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>79</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>501</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>502</v>
+      </c>
+      <c r="J64" t="s">
+        <v>503</v>
+      </c>
+      <c r="K64" t="s">
+        <v>504</v>
+      </c>
+      <c r="L64" t="s">
+        <v>505</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>495</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>507</v>
+      </c>
+      <c r="J65" t="s">
+        <v>508</v>
+      </c>
+      <c r="K65" t="s">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>511</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>512</v>
+      </c>
+      <c r="X65" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" t="s">
+        <v>517</v>
+      </c>
+      <c r="K66" t="s">
+        <v>518</v>
+      </c>
+      <c r="L66" t="s">
+        <v>519</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>520</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>521</v>
+      </c>
+      <c r="X66" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>525</v>
+      </c>
+      <c r="J67" t="s">
+        <v>526</v>
+      </c>
+      <c r="K67" t="s">
+        <v>527</v>
+      </c>
+      <c r="L67" t="s">
+        <v>528</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>529</v>
+      </c>
+      <c r="O68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>521</v>
+      </c>
+      <c r="X68" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>536</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" t="s">
+        <v>538</v>
+      </c>
+      <c r="K69" t="s">
+        <v>539</v>
+      </c>
+      <c r="L69" t="s">
+        <v>540</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>529</v>
+      </c>
+      <c r="O69" t="s">
+        <v>65</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>546</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>547</v>
+      </c>
+      <c r="X70" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>550</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>551</v>
+      </c>
+      <c r="J71" t="s">
+        <v>552</v>
+      </c>
+      <c r="K71" t="s">
+        <v>553</v>
+      </c>
+      <c r="L71" t="s">
+        <v>554</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>520</v>
+      </c>
+      <c r="O71" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>555</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>556</v>
+      </c>
+      <c r="J72" t="s">
+        <v>557</v>
+      </c>
+      <c r="K72" t="s">
+        <v>558</v>
+      </c>
+      <c r="L72" t="s">
+        <v>559</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>560</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>563</v>
+      </c>
+      <c r="J73" t="s">
+        <v>564</v>
+      </c>
+      <c r="K73" t="s">
+        <v>565</v>
+      </c>
+      <c r="L73" t="s">
+        <v>566</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>567</v>
+      </c>
+      <c r="X73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>570</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>571</v>
+      </c>
+      <c r="J74" t="s">
+        <v>572</v>
+      </c>
+      <c r="K74" t="s">
+        <v>573</v>
+      </c>
+      <c r="L74" t="s">
+        <v>574</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>560</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>575</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>576</v>
+      </c>
+      <c r="J75" t="s">
+        <v>577</v>
+      </c>
+      <c r="K75" t="s">
+        <v>578</v>
+      </c>
+      <c r="L75" t="s">
+        <v>579</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>580</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>581</v>
+      </c>
+      <c r="J76" t="s">
+        <v>582</v>
+      </c>
+      <c r="K76" t="s">
+        <v>583</v>
+      </c>
+      <c r="L76" t="s">
+        <v>584</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>585</v>
+      </c>
+      <c r="O76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>586</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>587</v>
+      </c>
+      <c r="J77" t="s">
+        <v>588</v>
+      </c>
+      <c r="K77" t="s">
+        <v>589</v>
+      </c>
+      <c r="L77" t="s">
+        <v>590</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>591</v>
+      </c>
+      <c r="O77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>592</v>
+      </c>
+      <c r="X77" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>595</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>596</v>
+      </c>
+      <c r="J78" t="s">
+        <v>597</v>
+      </c>
+      <c r="K78" t="s">
+        <v>598</v>
+      </c>
+      <c r="L78" t="s">
+        <v>599</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>600</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>601</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>602</v>
+      </c>
+      <c r="J79" t="s">
+        <v>603</v>
+      </c>
+      <c r="K79" t="s">
+        <v>604</v>
+      </c>
+      <c r="L79" t="s">
+        <v>605</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>606</v>
+      </c>
+      <c r="O79" t="s">
+        <v>152</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>607</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>608</v>
+      </c>
+      <c r="J80" t="s">
+        <v>609</v>
+      </c>
+      <c r="K80" t="s">
+        <v>610</v>
+      </c>
+      <c r="L80" t="s">
+        <v>611</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>612</v>
+      </c>
+      <c r="O80" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>613</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>614</v>
+      </c>
+      <c r="J81" t="s">
+        <v>615</v>
+      </c>
+      <c r="K81" t="s">
+        <v>616</v>
+      </c>
+      <c r="L81" t="s">
+        <v>617</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>618</v>
+      </c>
+      <c r="O81" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>620</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>621</v>
+      </c>
+      <c r="J82" t="s">
+        <v>622</v>
+      </c>
+      <c r="K82" t="s">
+        <v>623</v>
+      </c>
+      <c r="L82" t="s">
+        <v>624</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>625</v>
+      </c>
+      <c r="O82" t="s">
+        <v>65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>627</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>628</v>
+      </c>
+      <c r="J83" t="s">
+        <v>629</v>
+      </c>
+      <c r="K83" t="s">
+        <v>630</v>
+      </c>
+      <c r="L83" t="s">
+        <v>631</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>632</v>
+      </c>
+      <c r="O83" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>634</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>635</v>
+      </c>
+      <c r="J84" t="s">
+        <v>636</v>
+      </c>
+      <c r="K84" t="s">
+        <v>637</v>
+      </c>
+      <c r="L84" t="s">
+        <v>638</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>639</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>640</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>641</v>
+      </c>
+      <c r="J85" t="s">
+        <v>642</v>
+      </c>
+      <c r="K85" t="s">
+        <v>643</v>
+      </c>
+      <c r="L85" t="s">
+        <v>644</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>645</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>647</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>648</v>
+      </c>
+      <c r="J86" t="s">
+        <v>649</v>
+      </c>
+      <c r="K86" t="s">
+        <v>650</v>
+      </c>
+      <c r="L86" t="s">
+        <v>651</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>653</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>654</v>
+      </c>
+      <c r="J87" t="s">
+        <v>655</v>
+      </c>
+      <c r="K87" t="s">
+        <v>656</v>
+      </c>
+      <c r="L87" t="s">
+        <v>657</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>658</v>
+      </c>
+      <c r="O87" t="s">
+        <v>65</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>659</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>660</v>
+      </c>
+      <c r="J88" t="s">
+        <v>661</v>
+      </c>
+      <c r="K88" t="s">
+        <v>662</v>
+      </c>
+      <c r="L88" t="s">
+        <v>663</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>664</v>
+      </c>
+      <c r="O88" t="s">
+        <v>65</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>665</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>666</v>
+      </c>
+      <c r="J89" t="s">
+        <v>667</v>
+      </c>
+      <c r="K89" t="s">
+        <v>668</v>
+      </c>
+      <c r="L89" t="s">
+        <v>669</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>664</v>
+      </c>
+      <c r="O89" t="s">
+        <v>58</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>670</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>671</v>
+      </c>
+      <c r="J90" t="s">
+        <v>672</v>
+      </c>
+      <c r="K90" t="s">
+        <v>673</v>
+      </c>
+      <c r="L90" t="s">
+        <v>674</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>675</v>
+      </c>
+      <c r="O90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>677</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>678</v>
+      </c>
+      <c r="J91" t="s">
+        <v>679</v>
+      </c>
+      <c r="K91" t="s">
+        <v>680</v>
+      </c>
+      <c r="L91" t="s">
+        <v>681</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>682</v>
+      </c>
+      <c r="O91" t="s">
+        <v>98</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>683</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>684</v>
+      </c>
+      <c r="J92" t="s">
+        <v>685</v>
+      </c>
+      <c r="K92" t="s">
+        <v>686</v>
+      </c>
+      <c r="L92" t="s">
+        <v>687</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>688</v>
+      </c>
+      <c r="O92" t="s">
+        <v>58</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>690</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>691</v>
+      </c>
+      <c r="J93" t="s">
+        <v>692</v>
+      </c>
+      <c r="K93" t="s">
+        <v>693</v>
+      </c>
+      <c r="L93" t="s">
+        <v>694</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>695</v>
+      </c>
+      <c r="O93" t="s">
+        <v>79</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>697</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>698</v>
+      </c>
+      <c r="J94" t="s">
+        <v>699</v>
+      </c>
+      <c r="K94" t="s">
+        <v>700</v>
+      </c>
+      <c r="L94" t="s">
+        <v>701</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>702</v>
+      </c>
+      <c r="O94" t="s">
+        <v>58</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>704</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>705</v>
+      </c>
+      <c r="J95" t="s">
+        <v>706</v>
+      </c>
+      <c r="K95" t="s">
+        <v>707</v>
+      </c>
+      <c r="L95" t="s">
+        <v>708</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>709</v>
+      </c>
+      <c r="O95" t="s">
+        <v>58</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>710</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>711</v>
+      </c>
+      <c r="J96" t="s">
+        <v>712</v>
+      </c>
+      <c r="K96" t="s">
+        <v>713</v>
+      </c>
+      <c r="L96" t="s">
+        <v>714</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53316</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>716</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>717</v>
+      </c>
+      <c r="J97" t="s">
+        <v>718</v>
+      </c>
+      <c r="K97" t="s">
+        <v>719</v>
+      </c>
+      <c r="L97" t="s">
+        <v>720</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
